--- a/2_Extracting affilitations/2_Fuzzy matching/University list/Unique Universities.xlsx
+++ b/2_Extracting affilitations/2_Fuzzy matching/University list/Unique Universities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MattJohnson/Desktop/Refs + affiliations/Affiliations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MattJohnson/Desktop/Affiliations/2_Extracting affilitations/2_Fuzzy matching/University list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C981BC4-2C94-C348-B003-07C21A8A9757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFC0FA6-BB4F-DD49-9AC2-C67D80768152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3620" yWindow="1620" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="692">
   <si>
     <t>Affilliation</t>
   </si>
@@ -233,9 +233,6 @@
     <t>University Of Toledo</t>
   </si>
   <si>
-    <t>University Of Oxford</t>
-  </si>
-  <si>
     <t>Institut D'Études Politiques</t>
   </si>
   <si>
@@ -1571,9 +1568,6 @@
     <t>Einaudi Institute For Economics</t>
   </si>
   <si>
-    <t>Published By Oxford University Press</t>
-  </si>
-  <si>
     <t>Universidad De San Andres</t>
   </si>
   <si>
@@ -1892,9 +1886,6 @@
     <t>Université Du Québec À Montréal</t>
   </si>
   <si>
-    <t>N.B.E.R</t>
-  </si>
-  <si>
     <t>Churchill College, Cambridge</t>
   </si>
   <si>
@@ -1994,9 +1985,6 @@
     <t>Cepremap</t>
   </si>
   <si>
-    <t>Cepremap, Paris</t>
-  </si>
-  <si>
     <t>Aberdeen University</t>
   </si>
   <si>
@@ -2027,9 +2015,6 @@
     <t>The Central Bank Of Iran</t>
   </si>
   <si>
-    <t>Core</t>
-  </si>
-  <si>
     <t>University Of Rome</t>
   </si>
   <si>
@@ -2055,9 +2040,6 @@
   </si>
   <si>
     <t>Universitàt Hamburg</t>
-  </si>
-  <si>
-    <t>C.O.R.E.</t>
   </si>
   <si>
     <t>King'S College, Cambridge</t>
@@ -2520,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E684"/>
+  <dimension ref="A1:E678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2537,57 +2519,60 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>663</v>
+      <c r="A2" s="2" t="s">
+        <v>690</v>
       </c>
       <c r="C2">
-        <f>LEN(A2)</f>
+        <f>LEN(D2)</f>
         <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>696</v>
+        <v>666</v>
       </c>
       <c r="C3">
-        <f>LEN(D3)</f>
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>685</v>
+        <f>LEN(A3)</f>
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>688</v>
+      </c>
+      <c r="E3" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>671</v>
+      <c r="A4" t="s">
+        <v>648</v>
       </c>
       <c r="C4">
         <f>LEN(A4)</f>
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>694</v>
-      </c>
-      <c r="E4" t="s">
-        <v>695</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>618</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <f>LEN(A5)</f>
-        <v>7</v>
+        <f>LEN(D5)</f>
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C6">
         <f>LEN(A6)</f>
@@ -2596,133 +2581,127 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>651</v>
-      </c>
-      <c r="B7" t="s">
-        <v>652</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7">
-        <f>LEN(A7)</f>
+        <f>LEN(D7)</f>
         <v>8</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E7">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="A8" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="C8">
         <f>LEN(D8)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>684</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C9">
-        <f>LEN(A9)</f>
-        <v>8</v>
+        <f t="shared" ref="C9:C72" si="0">LEN(A9)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>693</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>673</v>
+      </c>
+      <c r="B10" t="s">
+        <v>674</v>
+      </c>
       <c r="C10">
-        <f>LEN(D10)</f>
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="E10">
-        <v>46</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>697</v>
+      <c r="A11" t="str">
+        <f>REPLACE(B11,1,4,"")</f>
+        <v>City College</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
       </c>
       <c r="C11">
-        <f>LEN(D11)</f>
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>647</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>688</v>
+      <c r="A12" t="str">
+        <f>REPLACE(B12,1,4,"")</f>
+        <v>Falk Institute</v>
+      </c>
+      <c r="B12" t="s">
+        <v>292</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C75" si="0">LEN(A12)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>679</v>
-      </c>
-      <c r="B13" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f>REPLACE(B14,1,4,"")</f>
-        <v>City College</v>
-      </c>
-      <c r="B14" t="s">
-        <v>164</v>
+      <c r="A14" t="s">
+        <v>430</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
-        <f>REPLACE(B15,1,4,"")</f>
-        <v>Falk Institute</v>
-      </c>
-      <c r="B15" t="s">
-        <v>293</v>
+      <c r="A15" t="s">
+        <v>62</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>667</v>
+        <v>128</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>431</v>
+      <c r="A17" s="3" t="s">
+        <v>650</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>598</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -2731,7 +2710,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -2739,8 +2718,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>654</v>
+      <c r="A20" t="s">
+        <v>581</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -2749,7 +2728,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>600</v>
+        <v>123</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -2758,7 +2737,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>298</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -2767,7 +2746,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>583</v>
+        <v>137</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -2776,7 +2755,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -2785,7 +2764,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -2794,7 +2773,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -2803,7 +2782,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -2812,7 +2791,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>467</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -2821,7 +2800,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>591</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -2830,7 +2809,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>227</v>
+        <v>146</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -2839,7 +2818,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>468</v>
+        <v>92</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -2848,7 +2827,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>593</v>
+        <v>472</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -2857,7 +2836,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>437</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -2866,7 +2845,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -2875,7 +2854,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>473</v>
+        <v>171</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -2884,7 +2863,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>438</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -2893,7 +2872,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
@@ -2902,7 +2881,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>337</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
@@ -2911,7 +2890,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
@@ -2920,7 +2899,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
@@ -2929,7 +2908,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>338</v>
+        <v>621</v>
+      </c>
+      <c r="B41" t="s">
+        <v>619</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
@@ -2938,37 +2920,34 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>247</v>
+        <v>395</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>624</v>
-      </c>
-      <c r="B44" t="s">
-        <v>622</v>
+        <v>398</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>137</v>
+        <v>330</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
@@ -2977,7 +2956,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>396</v>
+        <v>306</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
@@ -2986,7 +2965,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>399</v>
+        <v>7</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
@@ -2995,7 +2974,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>331</v>
+        <v>20</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
@@ -3004,7 +2983,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>307</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
@@ -3013,7 +2992,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>427</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
@@ -3022,7 +3001,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -3031,7 +3010,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>410</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
@@ -3040,7 +3019,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>428</v>
+        <v>235</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
@@ -3049,7 +3028,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>289</v>
+        <v>369</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
@@ -3058,7 +3037,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>411</v>
+        <v>59</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
@@ -3067,7 +3046,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>236</v>
+        <v>609</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
@@ -3076,7 +3055,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
@@ -3085,7 +3064,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
@@ -3094,7 +3073,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>611</v>
+        <v>190</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
@@ -3103,7 +3082,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
@@ -3112,7 +3091,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
@@ -3121,7 +3100,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
@@ -3130,7 +3109,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>251</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
@@ -3139,7 +3118,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>175</v>
+        <v>625</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
@@ -3148,7 +3127,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>399</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
@@ -3157,7 +3136,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>252</v>
+        <v>345</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
@@ -3166,7 +3145,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>628</v>
+        <v>4</v>
       </c>
       <c r="C67">
         <f t="shared" si="0"/>
@@ -3175,7 +3154,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="C68">
         <f t="shared" si="0"/>
@@ -3184,7 +3163,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>346</v>
+        <v>17</v>
       </c>
       <c r="C69">
         <f t="shared" si="0"/>
@@ -3193,70 +3172,70 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="C70">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C71">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C72">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>167</v>
+        <v>277</v>
       </c>
       <c r="C73">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C73:C136" si="1">LEN(A73)</f>
         <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>266</v>
+        <v>153</v>
       </c>
       <c r="C74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>282</v>
       </c>
       <c r="C75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>278</v>
+        <v>156</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76:C139" si="1">LEN(A76)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
@@ -3265,7 +3244,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>283</v>
+        <v>129</v>
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
@@ -3274,7 +3253,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
@@ -3283,7 +3262,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
@@ -3292,7 +3271,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>448</v>
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
@@ -3301,7 +3280,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>218</v>
+        <v>373</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
@@ -3310,7 +3289,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>602</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
@@ -3319,7 +3298,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>449</v>
+        <v>30</v>
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
@@ -3328,7 +3307,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>374</v>
+        <v>193</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
@@ -3337,7 +3316,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>604</v>
+        <v>98</v>
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
@@ -3346,7 +3325,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
@@ -3355,7 +3334,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
@@ -3364,7 +3343,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
@@ -3373,7 +3352,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>357</v>
+        <v>189</v>
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
@@ -3382,7 +3361,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>63</v>
+        <v>308</v>
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
@@ -3391,7 +3370,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>225</v>
+        <v>519</v>
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
@@ -3400,7 +3379,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
@@ -3409,7 +3388,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>309</v>
+        <v>222</v>
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
@@ -3418,7 +3397,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>521</v>
+        <v>19</v>
       </c>
       <c r="C95">
         <f t="shared" si="1"/>
@@ -3427,7 +3406,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="C96">
         <f t="shared" si="1"/>
@@ -3436,7 +3415,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
@@ -3445,7 +3424,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="C98">
         <f t="shared" si="1"/>
@@ -3454,7 +3433,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C99">
         <f t="shared" si="1"/>
@@ -3463,7 +3442,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>211</v>
+        <v>310</v>
       </c>
       <c r="C100">
         <f t="shared" si="1"/>
@@ -3472,7 +3451,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>629</v>
+        <v>54</v>
       </c>
       <c r="C101">
         <f t="shared" si="1"/>
@@ -3481,7 +3460,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="C102">
         <f t="shared" si="1"/>
@@ -3490,34 +3469,34 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>311</v>
+        <v>595</v>
       </c>
       <c r="C103">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>446</v>
       </c>
       <c r="C104">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>169</v>
+        <v>536</v>
       </c>
       <c r="C105">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>597</v>
+        <v>236</v>
       </c>
       <c r="C106">
         <f t="shared" si="1"/>
@@ -3526,7 +3505,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>447</v>
+        <v>87</v>
       </c>
       <c r="C107">
         <f t="shared" si="1"/>
@@ -3535,7 +3514,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>538</v>
+        <v>40</v>
       </c>
       <c r="C108">
         <f t="shared" si="1"/>
@@ -3544,7 +3523,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>237</v>
+        <v>435</v>
       </c>
       <c r="C109">
         <f t="shared" si="1"/>
@@ -3553,7 +3532,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="C110">
         <f t="shared" si="1"/>
@@ -3562,7 +3541,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>40</v>
+        <v>575</v>
       </c>
       <c r="C111">
         <f t="shared" si="1"/>
@@ -3571,7 +3550,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>436</v>
+        <v>61</v>
       </c>
       <c r="C112">
         <f t="shared" si="1"/>
@@ -3580,7 +3559,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>192</v>
+        <v>684</v>
       </c>
       <c r="C113">
         <f t="shared" si="1"/>
@@ -3589,7 +3568,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>577</v>
+        <v>342</v>
       </c>
       <c r="C114">
         <f t="shared" si="1"/>
@@ -3598,7 +3577,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C115">
         <f t="shared" si="1"/>
@@ -3607,7 +3586,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>690</v>
+        <v>553</v>
       </c>
       <c r="C116">
         <f t="shared" si="1"/>
@@ -3616,7 +3595,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="C117">
         <f t="shared" si="1"/>
@@ -3625,7 +3604,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>34</v>
+        <v>608</v>
       </c>
       <c r="C118">
         <f t="shared" si="1"/>
@@ -3634,7 +3613,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>555</v>
+        <v>336</v>
       </c>
       <c r="C119">
         <f t="shared" si="1"/>
@@ -3643,7 +3622,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>316</v>
+        <v>220</v>
       </c>
       <c r="C120">
         <f t="shared" si="1"/>
@@ -3652,7 +3631,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>610</v>
+        <v>329</v>
       </c>
       <c r="C121">
         <f t="shared" si="1"/>
@@ -3661,7 +3640,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>337</v>
+        <v>122</v>
       </c>
       <c r="C122">
         <f t="shared" si="1"/>
@@ -3670,7 +3649,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>221</v>
+        <v>524</v>
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
@@ -3679,7 +3658,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="C124">
         <f t="shared" si="1"/>
@@ -3688,7 +3667,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
@@ -3697,7 +3676,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="C126">
         <f t="shared" si="1"/>
@@ -3706,7 +3685,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>81</v>
+        <v>661</v>
       </c>
       <c r="C127">
         <f t="shared" si="1"/>
@@ -3715,7 +3694,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>69</v>
+        <v>406</v>
       </c>
       <c r="C128">
         <f t="shared" si="1"/>
@@ -3724,7 +3703,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>437</v>
+        <v>346</v>
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
@@ -3733,7 +3712,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>666</v>
+        <v>476</v>
       </c>
       <c r="C130">
         <f t="shared" si="1"/>
@@ -3742,7 +3721,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>407</v>
+        <v>305</v>
       </c>
       <c r="C131">
         <f t="shared" si="1"/>
@@ -3751,7 +3730,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>347</v>
+        <v>559</v>
       </c>
       <c r="C132">
         <f t="shared" si="1"/>
@@ -3760,7 +3739,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>477</v>
+        <v>659</v>
       </c>
       <c r="C133">
         <f t="shared" si="1"/>
@@ -3769,7 +3748,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>306</v>
+        <v>606</v>
       </c>
       <c r="C134">
         <f t="shared" si="1"/>
@@ -3778,7 +3757,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>561</v>
+        <v>314</v>
       </c>
       <c r="C135">
         <f t="shared" si="1"/>
@@ -3787,7 +3766,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>664</v>
+        <v>445</v>
       </c>
       <c r="C136">
         <f t="shared" si="1"/>
@@ -3796,43 +3775,43 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>608</v>
+        <v>355</v>
       </c>
       <c r="C137">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C137:C199" si="2">LEN(A137)</f>
         <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>315</v>
+        <v>649</v>
       </c>
       <c r="C138">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>446</v>
+        <v>209</v>
       </c>
       <c r="C139">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C140">
-        <f t="shared" ref="C140:C203" si="2">LEN(A140)</f>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>653</v>
+        <v>184</v>
       </c>
       <c r="C141">
         <f t="shared" si="2"/>
@@ -3841,7 +3820,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="C142">
         <f t="shared" si="2"/>
@@ -3850,7 +3829,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>359</v>
+        <v>179</v>
       </c>
       <c r="C143">
         <f t="shared" si="2"/>
@@ -3859,7 +3838,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="C144">
         <f t="shared" si="2"/>
@@ -3868,7 +3847,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>290</v>
+        <v>493</v>
       </c>
       <c r="C145">
         <f t="shared" si="2"/>
@@ -3877,7 +3856,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>13</v>
+        <v>613</v>
       </c>
       <c r="C146">
         <f t="shared" si="2"/>
@@ -3886,7 +3865,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>180</v>
+        <v>285</v>
       </c>
       <c r="C147">
         <f t="shared" si="2"/>
@@ -3895,7 +3874,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>245</v>
+        <v>486</v>
       </c>
       <c r="C148">
         <f t="shared" si="2"/>
@@ -3904,7 +3883,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>494</v>
+        <v>56</v>
       </c>
       <c r="C149">
         <f t="shared" si="2"/>
@@ -3913,7 +3892,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>615</v>
+        <v>140</v>
       </c>
       <c r="C150">
         <f t="shared" si="2"/>
@@ -3922,7 +3901,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>286</v>
+        <v>671</v>
       </c>
       <c r="C151">
         <f t="shared" si="2"/>
@@ -3931,7 +3910,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>487</v>
+        <v>252</v>
       </c>
       <c r="C152">
         <f t="shared" si="2"/>
@@ -3940,7 +3919,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>56</v>
+        <v>279</v>
       </c>
       <c r="C153">
         <f t="shared" si="2"/>
@@ -3949,7 +3928,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>141</v>
+        <v>675</v>
       </c>
       <c r="C154">
         <f t="shared" si="2"/>
@@ -3958,7 +3937,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>677</v>
+        <v>500</v>
       </c>
       <c r="C155">
         <f t="shared" si="2"/>
@@ -3967,7 +3946,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>253</v>
+        <v>16</v>
       </c>
       <c r="C156">
         <f t="shared" si="2"/>
@@ -3976,7 +3955,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>280</v>
+        <v>106</v>
       </c>
       <c r="C157">
         <f t="shared" si="2"/>
@@ -3985,7 +3964,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>681</v>
+        <v>294</v>
       </c>
       <c r="C158">
         <f t="shared" si="2"/>
@@ -3994,7 +3973,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>501</v>
+        <v>48</v>
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
@@ -4003,7 +3982,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>16</v>
+        <v>458</v>
       </c>
       <c r="C160">
         <f t="shared" si="2"/>
@@ -4012,7 +3991,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="C161">
         <f t="shared" si="2"/>
@@ -4021,7 +4000,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>295</v>
+        <v>367</v>
       </c>
       <c r="C162">
         <f t="shared" si="2"/>
@@ -4030,7 +4009,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>48</v>
+        <v>479</v>
       </c>
       <c r="C163">
         <f t="shared" si="2"/>
@@ -4039,7 +4018,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="C164">
         <f t="shared" si="2"/>
@@ -4048,7 +4027,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>55</v>
+        <v>573</v>
       </c>
       <c r="C165">
         <f t="shared" si="2"/>
@@ -4057,7 +4036,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>368</v>
+        <v>667</v>
       </c>
       <c r="C166">
         <f t="shared" si="2"/>
@@ -4066,7 +4045,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>480</v>
+        <v>653</v>
       </c>
       <c r="C167">
         <f t="shared" si="2"/>
@@ -4075,7 +4054,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>424</v>
+        <v>206</v>
       </c>
       <c r="C168">
         <f t="shared" si="2"/>
@@ -4084,7 +4063,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>575</v>
+        <v>247</v>
       </c>
       <c r="C169">
         <f t="shared" si="2"/>
@@ -4093,7 +4072,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>672</v>
+        <v>347</v>
       </c>
       <c r="C170">
         <f t="shared" si="2"/>
@@ -4102,7 +4081,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>657</v>
+        <v>143</v>
       </c>
       <c r="C171">
         <f t="shared" si="2"/>
@@ -4111,7 +4090,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="C172">
         <f t="shared" si="2"/>
@@ -4120,7 +4099,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>248</v>
+        <v>439</v>
       </c>
       <c r="C173">
         <f t="shared" si="2"/>
@@ -4129,7 +4108,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>348</v>
+        <v>121</v>
       </c>
       <c r="C174">
         <f t="shared" si="2"/>
@@ -4138,7 +4117,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="C175">
         <f t="shared" si="2"/>
@@ -4147,7 +4126,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="C176">
         <f t="shared" si="2"/>
@@ -4156,7 +4135,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>440</v>
+        <v>215</v>
       </c>
       <c r="C177">
         <f t="shared" si="2"/>
@@ -4165,7 +4144,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="C178">
         <f t="shared" si="2"/>
@@ -4174,43 +4153,51 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>35</v>
+        <v>353</v>
       </c>
       <c r="C179">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>203</v>
+      <c r="A180" t="str">
+        <f>REPLACE(B180,1,4,"")</f>
+        <v>Central Bank Of Iran</v>
+      </c>
+      <c r="B180" t="s">
+        <v>658</v>
       </c>
       <c r="C180">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>216</v>
+      <c r="A181" t="str">
+        <f>REPLACE(B181,1,4,"")</f>
+        <v>Chase Manhattan Bank</v>
+      </c>
+      <c r="B181" t="s">
+        <v>155</v>
       </c>
       <c r="C181">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>49</v>
+        <v>304</v>
       </c>
       <c r="C182">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>354</v>
+        <v>475</v>
       </c>
       <c r="C183">
         <f t="shared" si="2"/>
@@ -4218,12 +4205,8 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" t="str">
-        <f>REPLACE(B184,1,4,"")</f>
-        <v>Central Bank Of Iran</v>
-      </c>
-      <c r="B184" t="s">
-        <v>662</v>
+      <c r="A184" t="s">
+        <v>201</v>
       </c>
       <c r="C184">
         <f t="shared" si="2"/>
@@ -4231,12 +4214,8 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" t="str">
-        <f>REPLACE(B185,1,4,"")</f>
-        <v>Chase Manhattan Bank</v>
-      </c>
-      <c r="B185" t="s">
-        <v>156</v>
+      <c r="A185" t="s">
+        <v>487</v>
       </c>
       <c r="C185">
         <f t="shared" si="2"/>
@@ -4245,7 +4224,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>305</v>
+        <v>630</v>
+      </c>
+      <c r="B186" t="s">
+        <v>627</v>
       </c>
       <c r="C186">
         <f t="shared" si="2"/>
@@ -4254,7 +4236,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>476</v>
+        <v>415</v>
       </c>
       <c r="C187">
         <f t="shared" si="2"/>
@@ -4263,7 +4245,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>202</v>
+        <v>593</v>
       </c>
       <c r="C188">
         <f t="shared" si="2"/>
@@ -4272,7 +4254,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>488</v>
+        <v>10</v>
       </c>
       <c r="C189">
         <f t="shared" si="2"/>
@@ -4281,10 +4263,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>633</v>
-      </c>
-      <c r="B190" t="s">
-        <v>630</v>
+        <v>442</v>
       </c>
       <c r="C190">
         <f t="shared" si="2"/>
@@ -4293,7 +4272,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>416</v>
+        <v>328</v>
       </c>
       <c r="C191">
         <f t="shared" si="2"/>
@@ -4302,7 +4281,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>595</v>
+        <v>617</v>
       </c>
       <c r="C192">
         <f t="shared" si="2"/>
@@ -4311,7 +4290,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="C193">
         <f t="shared" si="2"/>
@@ -4320,7 +4299,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>443</v>
+        <v>381</v>
       </c>
       <c r="C194">
         <f t="shared" si="2"/>
@@ -4329,7 +4308,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="C195">
         <f t="shared" si="2"/>
@@ -4338,7 +4317,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>620</v>
+        <v>258</v>
       </c>
       <c r="C196">
         <f t="shared" si="2"/>
@@ -4347,7 +4326,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="C197">
         <f t="shared" si="2"/>
@@ -4356,7 +4335,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>382</v>
+        <v>651</v>
       </c>
       <c r="C198">
         <f t="shared" si="2"/>
@@ -4365,7 +4344,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>260</v>
+        <v>72</v>
       </c>
       <c r="C199">
         <f t="shared" si="2"/>
@@ -4374,52 +4353,52 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="C200">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C200:C262" si="3">LEN(A200)</f>
         <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>188</v>
+        <v>484</v>
       </c>
       <c r="C201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>655</v>
+        <v>359</v>
       </c>
       <c r="C202">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="C203">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="C204">
-        <f t="shared" ref="C204:C267" si="3">LEN(A204)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>485</v>
+        <v>76</v>
       </c>
       <c r="C205">
         <f t="shared" si="3"/>
@@ -4428,7 +4407,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>360</v>
+        <v>64</v>
       </c>
       <c r="C206">
         <f t="shared" si="3"/>
@@ -4437,7 +4416,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>152</v>
+        <v>396</v>
       </c>
       <c r="C207">
         <f t="shared" si="3"/>
@@ -4446,7 +4425,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="C208">
         <f t="shared" si="3"/>
@@ -4455,7 +4434,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="C209">
         <f t="shared" si="3"/>
@@ -4464,52 +4443,56 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>77</v>
+        <v>588</v>
       </c>
       <c r="C210">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>64</v>
+        <v>576</v>
       </c>
       <c r="C211">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>397</v>
+        <v>639</v>
       </c>
       <c r="C212">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>179</v>
+      <c r="A213" t="str">
+        <f>REPLACE(B213,1,4,"")</f>
+        <v>Brookings Institution</v>
+      </c>
+      <c r="B213" t="s">
+        <v>23</v>
       </c>
       <c r="C213">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>322</v>
+        <v>528</v>
       </c>
       <c r="C214">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>590</v>
+        <v>434</v>
       </c>
       <c r="C215">
         <f t="shared" si="3"/>
@@ -4518,7 +4501,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>578</v>
+        <v>243</v>
       </c>
       <c r="C216">
         <f t="shared" si="3"/>
@@ -4527,7 +4510,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>642</v>
+        <v>531</v>
       </c>
       <c r="C217">
         <f t="shared" si="3"/>
@@ -4535,12 +4518,8 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" t="str">
-        <f>REPLACE(B218,1,4,"")</f>
-        <v>Brookings Institution</v>
-      </c>
-      <c r="B218" t="s">
-        <v>23</v>
+      <c r="A218" t="s">
+        <v>290</v>
       </c>
       <c r="C218">
         <f t="shared" si="3"/>
@@ -4549,7 +4528,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>530</v>
+        <v>182</v>
       </c>
       <c r="C219">
         <f t="shared" si="3"/>
@@ -4558,7 +4537,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>435</v>
+        <v>636</v>
       </c>
       <c r="C220">
         <f t="shared" si="3"/>
@@ -4567,7 +4546,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>244</v>
+        <v>36</v>
       </c>
       <c r="C221">
         <f t="shared" si="3"/>
@@ -4576,7 +4555,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>533</v>
+        <v>3</v>
       </c>
       <c r="C222">
         <f t="shared" si="3"/>
@@ -4585,7 +4564,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>291</v>
+        <v>506</v>
       </c>
       <c r="C223">
         <f t="shared" si="3"/>
@@ -4594,7 +4573,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>183</v>
+        <v>449</v>
       </c>
       <c r="C224">
         <f t="shared" si="3"/>
@@ -4603,7 +4582,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>639</v>
+        <v>331</v>
       </c>
       <c r="C225">
         <f t="shared" si="3"/>
@@ -4612,7 +4591,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>36</v>
+        <v>676</v>
       </c>
       <c r="C226">
         <f t="shared" si="3"/>
@@ -4621,7 +4600,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C227">
         <f t="shared" si="3"/>
@@ -4630,7 +4609,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>507</v>
+        <v>461</v>
       </c>
       <c r="C228">
         <f t="shared" si="3"/>
@@ -4639,7 +4618,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C229">
         <f t="shared" si="3"/>
@@ -4648,7 +4627,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="C230">
         <f t="shared" si="3"/>
@@ -4657,7 +4636,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>682</v>
+        <v>231</v>
       </c>
       <c r="C231">
         <f t="shared" si="3"/>
@@ -4666,7 +4645,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="C232">
         <f t="shared" si="3"/>
@@ -4675,7 +4654,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>462</v>
+        <v>278</v>
       </c>
       <c r="C233">
         <f t="shared" si="3"/>
@@ -4684,7 +4663,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>461</v>
+        <v>84</v>
       </c>
       <c r="C234">
         <f t="shared" si="3"/>
@@ -4693,7 +4672,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>367</v>
+        <v>31</v>
       </c>
       <c r="C235">
         <f t="shared" si="3"/>
@@ -4702,7 +4681,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>232</v>
+        <v>470</v>
       </c>
       <c r="C236">
         <f t="shared" si="3"/>
@@ -4711,7 +4690,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="C237">
         <f t="shared" si="3"/>
@@ -4720,7 +4699,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>279</v>
+        <v>567</v>
       </c>
       <c r="C238">
         <f t="shared" si="3"/>
@@ -4729,7 +4708,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C239">
         <f t="shared" si="3"/>
@@ -4738,7 +4717,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C240">
         <f t="shared" si="3"/>
@@ -4747,7 +4726,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>471</v>
+        <v>248</v>
       </c>
       <c r="C241">
         <f t="shared" si="3"/>
@@ -4756,7 +4735,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C242">
         <f t="shared" si="3"/>
@@ -4765,7 +4744,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>569</v>
+        <v>230</v>
       </c>
       <c r="C243">
         <f t="shared" si="3"/>
@@ -4774,7 +4753,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>71</v>
+        <v>657</v>
       </c>
       <c r="C244">
         <f t="shared" si="3"/>
@@ -4783,7 +4762,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>70</v>
+        <v>638</v>
       </c>
       <c r="C245">
         <f t="shared" si="3"/>
@@ -4792,7 +4771,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="C246">
         <f t="shared" si="3"/>
@@ -4801,7 +4780,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>58</v>
+        <v>612</v>
       </c>
       <c r="C247">
         <f t="shared" si="3"/>
@@ -4810,7 +4789,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="C248">
         <f t="shared" si="3"/>
@@ -4819,7 +4798,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>661</v>
+        <v>307</v>
       </c>
       <c r="C249">
         <f t="shared" si="3"/>
@@ -4828,7 +4807,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>641</v>
+        <v>325</v>
       </c>
       <c r="C250">
         <f t="shared" si="3"/>
@@ -4837,7 +4816,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>204</v>
+        <v>586</v>
       </c>
       <c r="C251">
         <f t="shared" si="3"/>
@@ -4846,7 +4825,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>614</v>
+        <v>376</v>
       </c>
       <c r="C252">
         <f t="shared" si="3"/>
@@ -4855,7 +4834,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="C253">
         <f t="shared" si="3"/>
@@ -4864,7 +4843,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>308</v>
+        <v>205</v>
       </c>
       <c r="C254">
         <f t="shared" si="3"/>
@@ -4873,7 +4852,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="C255">
         <f t="shared" si="3"/>
@@ -4882,7 +4861,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>588</v>
+        <v>165</v>
       </c>
       <c r="C256">
         <f t="shared" si="3"/>
@@ -4891,52 +4870,52 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>377</v>
+        <v>318</v>
       </c>
       <c r="C257">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>57</v>
+        <v>564</v>
       </c>
       <c r="C258">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C259">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C260">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>166</v>
+        <v>447</v>
       </c>
       <c r="C261">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="C262">
         <f t="shared" si="3"/>
@@ -4945,61 +4924,61 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>566</v>
+        <v>99</v>
       </c>
       <c r="C263">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C263:C326" si="4">LEN(A263)</f>
         <v>22</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>222</v>
+        <v>392</v>
       </c>
       <c r="C264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>344</v>
+        <v>631</v>
       </c>
       <c r="C265">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="C266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="C267">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>100</v>
+        <v>352</v>
       </c>
       <c r="C268">
-        <f t="shared" ref="C268:C331" si="4">LEN(A268)</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="C269">
         <f t="shared" si="4"/>
@@ -5008,7 +4987,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>634</v>
+        <v>324</v>
       </c>
       <c r="C270">
         <f t="shared" si="4"/>
@@ -5017,7 +4996,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>500</v>
+        <v>9</v>
       </c>
       <c r="C271">
         <f t="shared" si="4"/>
@@ -5026,7 +5005,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>351</v>
+        <v>645</v>
       </c>
       <c r="C272">
         <f t="shared" si="4"/>
@@ -5035,7 +5014,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>353</v>
+        <v>52</v>
       </c>
       <c r="C273">
         <f t="shared" si="4"/>
@@ -5044,7 +5023,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="C274">
         <f t="shared" si="4"/>
@@ -5053,7 +5032,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>325</v>
+        <v>618</v>
       </c>
       <c r="C275">
         <f t="shared" si="4"/>
@@ -5062,7 +5041,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C276">
         <f t="shared" si="4"/>
@@ -5071,7 +5050,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>648</v>
+        <v>260</v>
       </c>
       <c r="C277">
         <f t="shared" si="4"/>
@@ -5080,7 +5059,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>52</v>
+        <v>488</v>
       </c>
       <c r="C278">
         <f t="shared" si="4"/>
@@ -5089,7 +5068,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>294</v>
+        <v>566</v>
       </c>
       <c r="C279">
         <f t="shared" si="4"/>
@@ -5098,7 +5077,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>621</v>
+        <v>15</v>
       </c>
       <c r="C280">
         <f t="shared" si="4"/>
@@ -5107,7 +5086,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>25</v>
+        <v>394</v>
       </c>
       <c r="C281">
         <f t="shared" si="4"/>
@@ -5116,7 +5095,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>261</v>
+        <v>390</v>
       </c>
       <c r="C282">
         <f t="shared" si="4"/>
@@ -5125,7 +5104,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>489</v>
+        <v>78</v>
       </c>
       <c r="C283">
         <f t="shared" si="4"/>
@@ -5134,7 +5113,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>568</v>
+        <v>428</v>
       </c>
       <c r="C284">
         <f t="shared" si="4"/>
@@ -5143,7 +5122,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>15</v>
+        <v>482</v>
       </c>
       <c r="C285">
         <f t="shared" si="4"/>
@@ -5152,7 +5131,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>395</v>
+        <v>1</v>
       </c>
       <c r="C286">
         <f t="shared" si="4"/>
@@ -5161,7 +5140,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>391</v>
+        <v>497</v>
       </c>
       <c r="C287">
         <f t="shared" si="4"/>
@@ -5170,7 +5149,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="C288">
         <f t="shared" si="4"/>
@@ -5179,52 +5158,52 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C289">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>483</v>
+        <v>262</v>
       </c>
       <c r="C290">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="C291">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>498</v>
+        <v>313</v>
       </c>
       <c r="C292">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>174</v>
+        <v>537</v>
       </c>
       <c r="C293">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>418</v>
+        <v>109</v>
       </c>
       <c r="C294">
         <f t="shared" si="4"/>
@@ -5233,7 +5212,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="C295">
         <f t="shared" si="4"/>
@@ -5242,7 +5221,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>201</v>
+        <v>432</v>
       </c>
       <c r="C296">
         <f t="shared" si="4"/>
@@ -5251,7 +5230,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>314</v>
+        <v>208</v>
       </c>
       <c r="C297">
         <f t="shared" si="4"/>
@@ -5260,7 +5239,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="C298">
         <f t="shared" si="4"/>
@@ -5269,7 +5248,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="C299">
         <f t="shared" si="4"/>
@@ -5278,7 +5257,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>233</v>
+        <v>47</v>
       </c>
       <c r="C300">
         <f t="shared" si="4"/>
@@ -5287,7 +5266,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>433</v>
+        <v>6</v>
       </c>
       <c r="C301">
         <f t="shared" si="4"/>
@@ -5296,7 +5275,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>209</v>
+        <v>541</v>
       </c>
       <c r="C302">
         <f t="shared" si="4"/>
@@ -5305,7 +5284,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>518</v>
+        <v>468</v>
       </c>
       <c r="C303">
         <f t="shared" si="4"/>
@@ -5314,7 +5293,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="C304">
         <f t="shared" si="4"/>
@@ -5323,7 +5302,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c r="C305">
         <f t="shared" si="4"/>
@@ -5332,7 +5311,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>6</v>
+        <v>465</v>
       </c>
       <c r="C306">
         <f t="shared" si="4"/>
@@ -5341,7 +5320,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>543</v>
+        <v>397</v>
       </c>
       <c r="C307">
         <f t="shared" si="4"/>
@@ -5350,7 +5329,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>469</v>
+        <v>66</v>
       </c>
       <c r="C308">
         <f t="shared" si="4"/>
@@ -5359,7 +5338,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="C309">
         <f t="shared" si="4"/>
@@ -5368,7 +5347,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="C310">
         <f t="shared" si="4"/>
@@ -5377,7 +5356,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>466</v>
+        <v>261</v>
       </c>
       <c r="C311">
         <f t="shared" si="4"/>
@@ -5386,7 +5365,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C312">
         <f t="shared" si="4"/>
@@ -5395,7 +5374,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="C313">
         <f t="shared" si="4"/>
@@ -5404,7 +5383,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>285</v>
+        <v>22</v>
       </c>
       <c r="C314">
         <f t="shared" si="4"/>
@@ -5413,7 +5392,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>401</v>
+        <v>8</v>
       </c>
       <c r="C315">
         <f t="shared" si="4"/>
@@ -5422,7 +5401,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="C316">
         <f t="shared" si="4"/>
@@ -5431,7 +5410,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>387</v>
+        <v>670</v>
       </c>
       <c r="C317">
         <f t="shared" si="4"/>
@@ -5440,7 +5419,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>145</v>
+        <v>545</v>
       </c>
       <c r="C318">
         <f t="shared" si="4"/>
@@ -5449,7 +5428,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>22</v>
+        <v>323</v>
       </c>
       <c r="C319">
         <f t="shared" si="4"/>
@@ -5458,7 +5437,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="C320">
         <f t="shared" si="4"/>
@@ -5467,7 +5446,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="C321">
         <f t="shared" si="4"/>
@@ -5476,7 +5455,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>676</v>
+        <v>46</v>
       </c>
       <c r="C322">
         <f t="shared" si="4"/>
@@ -5485,97 +5464,97 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C323">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>324</v>
+        <v>424</v>
       </c>
       <c r="C324">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>238</v>
+        <v>489</v>
       </c>
       <c r="C325">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>82</v>
+        <v>478</v>
       </c>
       <c r="C326">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>46</v>
+        <v>535</v>
       </c>
       <c r="C327">
-        <f t="shared" si="4"/>
-        <v>23</v>
+        <f t="shared" ref="C327:C390" si="5">LEN(A327)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>550</v>
+        <v>335</v>
       </c>
       <c r="C328">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>425</v>
+        <v>176</v>
       </c>
       <c r="C329">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="C330">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>479</v>
+        <v>94</v>
       </c>
       <c r="C331">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>537</v>
+        <v>90</v>
       </c>
       <c r="C332">
-        <f t="shared" ref="C332:C395" si="5">LEN(A332)</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>336</v>
+        <v>229</v>
       </c>
       <c r="C333">
         <f t="shared" si="5"/>
@@ -5584,7 +5563,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>177</v>
+        <v>496</v>
       </c>
       <c r="C334">
         <f t="shared" si="5"/>
@@ -5593,7 +5572,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>531</v>
+        <v>378</v>
       </c>
       <c r="C335">
         <f t="shared" si="5"/>
@@ -5602,7 +5581,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>95</v>
+        <v>360</v>
       </c>
       <c r="C336">
         <f t="shared" si="5"/>
@@ -5611,7 +5590,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>91</v>
+        <v>596</v>
       </c>
       <c r="C337">
         <f t="shared" si="5"/>
@@ -5620,7 +5599,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="C338">
         <f t="shared" si="5"/>
@@ -5629,7 +5608,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
       <c r="C339">
         <f t="shared" si="5"/>
@@ -5638,7 +5617,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>379</v>
+        <v>454</v>
       </c>
       <c r="C340">
         <f t="shared" si="5"/>
@@ -5647,7 +5626,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C341">
         <f t="shared" si="5"/>
@@ -5656,7 +5635,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>598</v>
+        <v>225</v>
       </c>
       <c r="C342">
         <f t="shared" si="5"/>
@@ -5665,7 +5644,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>265</v>
+        <v>85</v>
       </c>
       <c r="C343">
         <f t="shared" si="5"/>
@@ -5674,7 +5653,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>564</v>
+        <v>223</v>
       </c>
       <c r="C344">
         <f t="shared" si="5"/>
@@ -5683,7 +5662,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>455</v>
+        <v>71</v>
       </c>
       <c r="C345">
         <f t="shared" si="5"/>
@@ -5692,7 +5671,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>363</v>
+        <v>582</v>
       </c>
       <c r="C346">
         <f t="shared" si="5"/>
@@ -5701,7 +5680,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>226</v>
+        <v>116</v>
       </c>
       <c r="C347">
         <f t="shared" si="5"/>
@@ -5710,7 +5689,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>86</v>
+        <v>665</v>
       </c>
       <c r="C348">
         <f t="shared" si="5"/>
@@ -5719,7 +5698,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="C349">
         <f t="shared" si="5"/>
@@ -5728,7 +5707,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="C350">
         <f t="shared" si="5"/>
@@ -5737,7 +5716,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>584</v>
+        <v>351</v>
       </c>
       <c r="C351">
         <f t="shared" si="5"/>
@@ -5746,7 +5725,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="C352">
         <f t="shared" si="5"/>
@@ -5755,7 +5734,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>670</v>
+        <v>240</v>
       </c>
       <c r="C353">
         <f t="shared" si="5"/>
@@ -5764,7 +5743,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="C354">
         <f t="shared" si="5"/>
@@ -5773,7 +5752,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="C355">
         <f t="shared" si="5"/>
@@ -5782,7 +5761,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>352</v>
+        <v>654</v>
       </c>
       <c r="C356">
         <f t="shared" si="5"/>
@@ -5791,52 +5770,52 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>153</v>
+        <v>316</v>
       </c>
       <c r="C357">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="C358">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>2</v>
+        <v>283</v>
       </c>
       <c r="C359">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>119</v>
+        <v>379</v>
       </c>
       <c r="C360">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="C361">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="C362">
         <f t="shared" si="5"/>
@@ -5845,7 +5824,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>302</v>
+        <v>148</v>
       </c>
       <c r="C363">
         <f t="shared" si="5"/>
@@ -5854,7 +5833,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="C364">
         <f t="shared" si="5"/>
@@ -5863,7 +5842,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>380</v>
+        <v>296</v>
       </c>
       <c r="C365">
         <f t="shared" si="5"/>
@@ -5872,7 +5851,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>674</v>
+        <v>511</v>
       </c>
       <c r="C366">
         <f t="shared" si="5"/>
@@ -5881,7 +5860,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>292</v>
+        <v>580</v>
       </c>
       <c r="C367">
         <f t="shared" si="5"/>
@@ -5890,7 +5869,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>149</v>
+        <v>409</v>
       </c>
       <c r="C368">
         <f t="shared" si="5"/>
@@ -5899,7 +5878,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>298</v>
+        <v>387</v>
       </c>
       <c r="C369">
         <f t="shared" si="5"/>
@@ -5908,7 +5887,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>297</v>
+        <v>105</v>
       </c>
       <c r="C370">
         <f t="shared" si="5"/>
@@ -5917,7 +5896,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C371">
         <f t="shared" si="5"/>
@@ -5926,7 +5905,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>582</v>
+        <v>320</v>
       </c>
       <c r="C372">
         <f t="shared" si="5"/>
@@ -5935,7 +5914,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
       <c r="C373">
         <f t="shared" si="5"/>
@@ -5944,7 +5923,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="C374">
         <f t="shared" si="5"/>
@@ -5953,7 +5932,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>106</v>
+        <v>652</v>
       </c>
       <c r="C375">
         <f t="shared" si="5"/>
@@ -5962,7 +5941,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>512</v>
+        <v>656</v>
+      </c>
+      <c r="B376" t="s">
+        <v>655</v>
       </c>
       <c r="C376">
         <f t="shared" si="5"/>
@@ -5971,7 +5953,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>321</v>
+        <v>664</v>
       </c>
       <c r="C377">
         <f t="shared" si="5"/>
@@ -5980,7 +5962,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>126</v>
+        <v>451</v>
       </c>
       <c r="C378">
         <f t="shared" si="5"/>
@@ -5989,7 +5971,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>327</v>
+        <v>623</v>
       </c>
       <c r="C379">
         <f t="shared" si="5"/>
@@ -5998,55 +5980,52 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>656</v>
+        <v>587</v>
       </c>
       <c r="C380">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>660</v>
-      </c>
-      <c r="B381" t="s">
-        <v>659</v>
+        <v>421</v>
       </c>
       <c r="C381">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>669</v>
+        <v>227</v>
       </c>
       <c r="C382">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>452</v>
+        <v>348</v>
       </c>
       <c r="C383">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="C384">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>589</v>
+        <v>512</v>
       </c>
       <c r="C385">
         <f t="shared" si="5"/>
@@ -6055,7 +6034,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>422</v>
+        <v>532</v>
       </c>
       <c r="C386">
         <f t="shared" si="5"/>
@@ -6064,7 +6043,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>228</v>
+        <v>565</v>
       </c>
       <c r="C387">
         <f t="shared" si="5"/>
@@ -6073,7 +6052,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>349</v>
+        <v>167</v>
       </c>
       <c r="C388">
         <f t="shared" si="5"/>
@@ -6082,7 +6061,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>646</v>
+        <v>577</v>
       </c>
       <c r="C389">
         <f t="shared" si="5"/>
@@ -6091,7 +6070,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>514</v>
+        <v>82</v>
       </c>
       <c r="C390">
         <f t="shared" si="5"/>
@@ -6100,61 +6079,61 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>534</v>
+        <v>194</v>
       </c>
       <c r="C391">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C391:C454" si="6">LEN(A391)</f>
         <v>26</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>567</v>
+        <v>242</v>
       </c>
       <c r="C392">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>168</v>
+        <v>377</v>
       </c>
       <c r="C393">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>579</v>
+        <v>389</v>
       </c>
       <c r="C394">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C395">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="C396">
-        <f t="shared" ref="C396:C459" si="6">LEN(A396)</f>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="C397">
         <f t="shared" si="6"/>
@@ -6163,7 +6142,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>378</v>
+        <v>73</v>
       </c>
       <c r="C398">
         <f t="shared" si="6"/>
@@ -6172,7 +6151,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>390</v>
+        <v>249</v>
       </c>
       <c r="C399">
         <f t="shared" si="6"/>
@@ -6181,7 +6160,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C400">
         <f t="shared" si="6"/>
@@ -6190,7 +6169,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="C401">
         <f t="shared" si="6"/>
@@ -6199,7 +6178,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>273</v>
+        <v>333</v>
       </c>
       <c r="C402">
         <f t="shared" si="6"/>
@@ -6208,7 +6187,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="C403">
         <f t="shared" si="6"/>
@@ -6217,52 +6196,53 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="C404">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>27</v>
+        <v>534</v>
       </c>
       <c r="C405">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>189</v>
+        <v>646</v>
       </c>
       <c r="C406">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="C407">
         <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>182</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="B408"/>
       <c r="C408">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
       <c r="C409">
         <f t="shared" si="6"/>
@@ -6271,7 +6251,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>536</v>
+        <v>97</v>
       </c>
       <c r="C410">
         <f t="shared" si="6"/>
@@ -6280,7 +6260,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>649</v>
+        <v>374</v>
       </c>
       <c r="C411">
         <f t="shared" si="6"/>
@@ -6289,18 +6269,17 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="C412">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
     </row>
-    <row r="413" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>527</v>
-      </c>
-      <c r="B413"/>
+        <v>268</v>
+      </c>
       <c r="C413">
         <f t="shared" si="6"/>
         <v>27</v>
@@ -6308,7 +6287,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>601</v>
+        <v>452</v>
       </c>
       <c r="C414">
         <f t="shared" si="6"/>
@@ -6317,7 +6296,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>98</v>
+        <v>363</v>
       </c>
       <c r="C415">
         <f t="shared" si="6"/>
@@ -6326,7 +6305,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>375</v>
+        <v>505</v>
       </c>
       <c r="C416">
         <f t="shared" si="6"/>
@@ -6335,7 +6314,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="C417">
         <f t="shared" si="6"/>
@@ -6344,7 +6323,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>269</v>
+        <v>340</v>
       </c>
       <c r="C418">
         <f t="shared" si="6"/>
@@ -6353,7 +6332,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>453</v>
+        <v>115</v>
       </c>
       <c r="C419">
         <f t="shared" si="6"/>
@@ -6362,7 +6341,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>364</v>
+        <v>219</v>
       </c>
       <c r="C420">
         <f t="shared" si="6"/>
@@ -6371,7 +6350,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>506</v>
+        <v>83</v>
       </c>
       <c r="C421">
         <f t="shared" si="6"/>
@@ -6380,7 +6359,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>21</v>
+        <v>338</v>
       </c>
       <c r="C422">
         <f t="shared" si="6"/>
@@ -6389,7 +6368,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>341</v>
+        <v>142</v>
       </c>
       <c r="C423">
         <f t="shared" si="6"/>
@@ -6398,7 +6377,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="C424">
         <f t="shared" si="6"/>
@@ -6407,7 +6386,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="C425">
         <f t="shared" si="6"/>
@@ -6416,52 +6395,52 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>84</v>
+        <v>616</v>
       </c>
       <c r="C426">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="C427">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>143</v>
+        <v>384</v>
       </c>
       <c r="C428">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>199</v>
+        <v>477</v>
       </c>
       <c r="C429">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>171</v>
+        <v>267</v>
       </c>
       <c r="C430">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>619</v>
+        <v>450</v>
       </c>
       <c r="C431">
         <f t="shared" si="6"/>
@@ -6470,7 +6449,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="C432">
         <f t="shared" si="6"/>
@@ -6479,7 +6458,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="C433">
         <f t="shared" si="6"/>
@@ -6488,7 +6467,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>478</v>
+        <v>65</v>
       </c>
       <c r="C434">
         <f t="shared" si="6"/>
@@ -6497,7 +6476,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>268</v>
+        <v>403</v>
       </c>
       <c r="C435">
         <f t="shared" si="6"/>
@@ -6506,7 +6485,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>451</v>
+        <v>542</v>
       </c>
       <c r="C436">
         <f t="shared" si="6"/>
@@ -6515,7 +6494,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>114</v>
+        <v>459</v>
       </c>
       <c r="C437">
         <f t="shared" si="6"/>
@@ -6524,7 +6503,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>442</v>
+        <v>368</v>
       </c>
       <c r="C438">
         <f t="shared" si="6"/>
@@ -6533,7 +6512,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C439">
         <f t="shared" si="6"/>
@@ -6542,7 +6521,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>404</v>
+        <v>600</v>
       </c>
       <c r="C440">
         <f t="shared" si="6"/>
@@ -6550,8 +6529,12 @@
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A441" t="s">
-        <v>544</v>
+      <c r="A441" t="str">
+        <f>REPLACE(B441,1,4,"")</f>
+        <v>New York Citt-Rand Institute</v>
+      </c>
+      <c r="B441" t="s">
+        <v>233</v>
       </c>
       <c r="C441">
         <f t="shared" si="6"/>
@@ -6560,7 +6543,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>460</v>
+        <v>183</v>
       </c>
       <c r="C442">
         <f t="shared" si="6"/>
@@ -6569,7 +6552,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>369</v>
+        <v>154</v>
       </c>
       <c r="C443">
         <f t="shared" si="6"/>
@@ -6578,7 +6561,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
       <c r="C444">
         <f t="shared" si="6"/>
@@ -6587,7 +6570,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>602</v>
+        <v>530</v>
       </c>
       <c r="C445">
         <f t="shared" si="6"/>
@@ -6595,12 +6578,8 @@
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A446" t="str">
-        <f>REPLACE(B446,1,4,"")</f>
-        <v>New York Citt-Rand Institute</v>
-      </c>
-      <c r="B446" t="s">
-        <v>234</v>
+      <c r="A446" t="s">
+        <v>485</v>
       </c>
       <c r="C446">
         <f t="shared" si="6"/>
@@ -6608,8 +6587,12 @@
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A447" t="s">
-        <v>184</v>
+      <c r="A447" t="str">
+        <f>REPLACE(B447,1,4,"")</f>
+        <v>Population Council, New York</v>
+      </c>
+      <c r="B447" t="s">
+        <v>641</v>
       </c>
       <c r="C447">
         <f t="shared" si="6"/>
@@ -6618,7 +6601,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="C448">
         <f t="shared" si="6"/>
@@ -6627,7 +6610,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C449">
         <f t="shared" si="6"/>
@@ -6636,7 +6619,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>532</v>
+        <v>207</v>
       </c>
       <c r="C450">
         <f t="shared" si="6"/>
@@ -6645,7 +6628,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="C451">
         <f t="shared" si="6"/>
@@ -6653,12 +6636,8 @@
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A452" t="str">
-        <f>REPLACE(B452,1,4,"")</f>
-        <v>Population Council, New York</v>
-      </c>
-      <c r="B452" t="s">
-        <v>644</v>
+      <c r="A452" t="s">
+        <v>141</v>
       </c>
       <c r="C452">
         <f t="shared" si="6"/>
@@ -6667,7 +6646,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="C453">
         <f t="shared" si="6"/>
@@ -6676,7 +6655,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="C454">
         <f t="shared" si="6"/>
@@ -6685,70 +6664,70 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>208</v>
+        <v>611</v>
       </c>
       <c r="C455">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C455:C518" si="7">LEN(A455)</f>
         <v>28</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>496</v>
+        <v>578</v>
       </c>
       <c r="C456">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="C457">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>60</v>
+        <v>271</v>
       </c>
       <c r="C458">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>160</v>
+        <v>527</v>
       </c>
       <c r="C459">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="C460">
-        <f t="shared" ref="C460:C523" si="7">LEN(A460)</f>
-        <v>28</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>580</v>
+        <v>175</v>
       </c>
       <c r="C461">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="C462">
         <f t="shared" si="7"/>
@@ -6757,7 +6736,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>272</v>
+        <v>380</v>
       </c>
       <c r="C463">
         <f t="shared" si="7"/>
@@ -6766,7 +6745,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="C464">
         <f t="shared" si="7"/>
@@ -6775,7 +6754,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>625</v>
+        <v>568</v>
       </c>
       <c r="C465">
         <f t="shared" si="7"/>
@@ -6784,7 +6763,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>176</v>
+        <v>402</v>
       </c>
       <c r="C466">
         <f t="shared" si="7"/>
@@ -6793,7 +6772,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>170</v>
+        <v>607</v>
       </c>
       <c r="C467">
         <f t="shared" si="7"/>
@@ -6802,7 +6781,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>381</v>
+        <v>253</v>
       </c>
       <c r="C468">
         <f t="shared" si="7"/>
@@ -6811,7 +6790,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>542</v>
+        <v>195</v>
       </c>
       <c r="C469">
         <f t="shared" si="7"/>
@@ -6820,7 +6799,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>570</v>
+        <v>139</v>
       </c>
       <c r="C470">
         <f t="shared" si="7"/>
@@ -6829,7 +6808,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="C471">
         <f t="shared" si="7"/>
@@ -6838,7 +6817,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>609</v>
+        <v>213</v>
       </c>
       <c r="C472">
         <f t="shared" si="7"/>
@@ -6847,7 +6826,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="C473">
         <f t="shared" si="7"/>
@@ -6856,7 +6835,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>196</v>
+        <v>408</v>
       </c>
       <c r="C474">
         <f t="shared" si="7"/>
@@ -6865,7 +6844,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="C475">
         <f t="shared" si="7"/>
@@ -6874,7 +6853,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="C476">
         <f t="shared" si="7"/>
@@ -6883,7 +6862,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>214</v>
+        <v>361</v>
       </c>
       <c r="C477">
         <f t="shared" si="7"/>
@@ -6892,7 +6871,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>181</v>
+        <v>514</v>
       </c>
       <c r="C478">
         <f t="shared" si="7"/>
@@ -6901,7 +6880,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>409</v>
+        <v>160</v>
       </c>
       <c r="C479">
         <f t="shared" si="7"/>
@@ -6910,7 +6889,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>165</v>
+        <v>605</v>
       </c>
       <c r="C480">
         <f t="shared" si="7"/>
@@ -6919,7 +6898,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>408</v>
+        <v>211</v>
       </c>
       <c r="C481">
         <f t="shared" si="7"/>
@@ -6928,7 +6907,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>362</v>
+        <v>552</v>
       </c>
       <c r="C482">
         <f t="shared" si="7"/>
@@ -6937,7 +6916,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>516</v>
+        <v>11</v>
       </c>
       <c r="C483">
         <f t="shared" si="7"/>
@@ -6946,52 +6925,52 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>161</v>
+        <v>520</v>
       </c>
       <c r="C484">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>607</v>
+        <v>309</v>
       </c>
       <c r="C485">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>212</v>
+        <v>474</v>
       </c>
       <c r="C486">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>554</v>
+        <v>135</v>
       </c>
       <c r="C487">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="C488">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>522</v>
+        <v>669</v>
       </c>
       <c r="C489">
         <f t="shared" si="7"/>
@@ -7000,7 +6979,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>310</v>
+        <v>502</v>
       </c>
       <c r="C490">
         <f t="shared" si="7"/>
@@ -7009,7 +6988,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="C491">
         <f t="shared" si="7"/>
@@ -7018,7 +6997,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C492">
         <f t="shared" si="7"/>
@@ -7027,7 +7006,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>372</v>
+        <v>67</v>
       </c>
       <c r="C493">
         <f t="shared" si="7"/>
@@ -7036,7 +7015,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C494">
         <f t="shared" si="7"/>
@@ -7045,7 +7024,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
       <c r="C495">
         <f t="shared" si="7"/>
@@ -7054,7 +7033,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>493</v>
+        <v>103</v>
       </c>
       <c r="C496">
         <f t="shared" si="7"/>
@@ -7063,7 +7042,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>121</v>
+        <v>642</v>
       </c>
       <c r="C497">
         <f t="shared" si="7"/>
@@ -7072,7 +7051,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="C498">
         <f t="shared" si="7"/>
@@ -7081,7 +7060,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>683</v>
+        <v>357</v>
       </c>
       <c r="C499">
         <f t="shared" si="7"/>
@@ -7090,7 +7069,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>559</v>
+        <v>276</v>
       </c>
       <c r="C500">
         <f t="shared" si="7"/>
@@ -7099,52 +7078,52 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="C501">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>645</v>
+        <v>444</v>
       </c>
       <c r="C502">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>178</v>
+        <v>550</v>
       </c>
       <c r="C503">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>358</v>
+        <v>509</v>
       </c>
       <c r="C504">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>277</v>
+        <v>416</v>
       </c>
       <c r="C505">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C506">
         <f t="shared" si="7"/>
@@ -7153,7 +7132,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>445</v>
+        <v>107</v>
       </c>
       <c r="C507">
         <f t="shared" si="7"/>
@@ -7162,7 +7141,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>552</v>
+        <v>507</v>
       </c>
       <c r="C508">
         <f t="shared" si="7"/>
@@ -7171,7 +7150,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>510</v>
+        <v>481</v>
       </c>
       <c r="C509">
         <f t="shared" si="7"/>
@@ -7180,7 +7159,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>417</v>
+        <v>551</v>
       </c>
       <c r="C510">
         <f t="shared" si="7"/>
@@ -7189,7 +7168,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>44</v>
+        <v>383</v>
       </c>
       <c r="C511">
         <f t="shared" si="7"/>
@@ -7198,7 +7177,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>108</v>
+        <v>418</v>
       </c>
       <c r="C512">
         <f t="shared" si="7"/>
@@ -7207,7 +7186,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>508</v>
+        <v>312</v>
       </c>
       <c r="C513">
         <f t="shared" si="7"/>
@@ -7216,7 +7195,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>482</v>
+        <v>660</v>
       </c>
       <c r="C514">
         <f t="shared" si="7"/>
@@ -7225,7 +7204,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>553</v>
+        <v>300</v>
       </c>
       <c r="C515">
         <f t="shared" si="7"/>
@@ -7234,7 +7213,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="C516">
         <f t="shared" si="7"/>
@@ -7243,7 +7222,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>419</v>
+        <v>563</v>
       </c>
       <c r="C517">
         <f t="shared" si="7"/>
@@ -7252,7 +7231,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>313</v>
+        <v>572</v>
       </c>
       <c r="C518">
         <f t="shared" si="7"/>
@@ -7261,79 +7240,79 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>665</v>
+        <v>615</v>
       </c>
       <c r="C519">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="C519:C582" si="8">LEN(A519)</f>
         <v>31</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>301</v>
+        <v>132</v>
       </c>
       <c r="C520">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>45</v>
+        <v>583</v>
       </c>
       <c r="C521">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>565</v>
+        <v>469</v>
       </c>
       <c r="C522">
-        <f t="shared" si="7"/>
-        <v>31</v>
+        <f t="shared" si="8"/>
+        <v>32</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>574</v>
+        <v>513</v>
       </c>
       <c r="C523">
-        <f t="shared" si="7"/>
-        <v>31</v>
+        <f t="shared" si="8"/>
+        <v>32</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>617</v>
+        <v>42</v>
       </c>
       <c r="C524">
-        <f t="shared" ref="C524:C587" si="8">LEN(A524)</f>
-        <v>31</v>
+        <f t="shared" si="8"/>
+        <v>32</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="C525">
         <f t="shared" si="8"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>585</v>
+        <v>501</v>
       </c>
       <c r="C526">
         <f t="shared" si="8"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C527">
         <f t="shared" si="8"/>
@@ -7342,7 +7321,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>515</v>
+        <v>401</v>
       </c>
       <c r="C528">
         <f t="shared" si="8"/>
@@ -7351,7 +7330,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C529">
         <f t="shared" si="8"/>
@@ -7360,7 +7339,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>97</v>
+        <v>275</v>
       </c>
       <c r="C530">
         <f t="shared" si="8"/>
@@ -7369,7 +7348,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>502</v>
+        <v>43</v>
       </c>
       <c r="C531">
         <f t="shared" si="8"/>
@@ -7378,7 +7357,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>474</v>
+        <v>39</v>
       </c>
       <c r="C532">
         <f t="shared" si="8"/>
@@ -7387,7 +7366,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="C533">
         <f t="shared" si="8"/>
@@ -7396,7 +7375,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="C534">
         <f t="shared" si="8"/>
@@ -7405,7 +7384,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>276</v>
+        <v>438</v>
       </c>
       <c r="C535">
         <f t="shared" si="8"/>
@@ -7414,7 +7393,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>43</v>
+        <v>405</v>
       </c>
       <c r="C536">
         <f t="shared" si="8"/>
@@ -7423,7 +7402,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>39</v>
+        <v>462</v>
       </c>
       <c r="C537">
         <f t="shared" si="8"/>
@@ -7432,7 +7411,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="C538">
         <f t="shared" si="8"/>
@@ -7441,7 +7420,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>572</v>
+        <v>431</v>
       </c>
       <c r="C539">
         <f t="shared" si="8"/>
@@ -7450,7 +7429,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>439</v>
+        <v>344</v>
       </c>
       <c r="C540">
         <f t="shared" si="8"/>
@@ -7459,7 +7438,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>406</v>
+        <v>212</v>
       </c>
       <c r="C541">
         <f t="shared" si="8"/>
@@ -7468,7 +7447,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>463</v>
+        <v>391</v>
       </c>
       <c r="C542">
         <f t="shared" si="8"/>
@@ -7477,7 +7456,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>430</v>
+        <v>365</v>
       </c>
       <c r="C543">
         <f t="shared" si="8"/>
@@ -7486,7 +7465,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>432</v>
+        <v>339</v>
       </c>
       <c r="C544">
         <f t="shared" si="8"/>
@@ -7495,7 +7474,7 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>345</v>
+        <v>681</v>
       </c>
       <c r="C545">
         <f t="shared" si="8"/>
@@ -7504,7 +7483,7 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>213</v>
+        <v>614</v>
       </c>
       <c r="C546">
         <f t="shared" si="8"/>
@@ -7513,7 +7492,7 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>392</v>
+        <v>254</v>
       </c>
       <c r="C547">
         <f t="shared" si="8"/>
@@ -7522,7 +7501,7 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>366</v>
+        <v>457</v>
       </c>
       <c r="C548">
         <f t="shared" si="8"/>
@@ -7531,7 +7510,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>340</v>
+        <v>554</v>
       </c>
       <c r="C549">
         <f t="shared" si="8"/>
@@ -7540,52 +7519,52 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>687</v>
+        <v>539</v>
       </c>
       <c r="C550">
         <f t="shared" si="8"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>616</v>
+        <v>319</v>
       </c>
       <c r="C551">
         <f t="shared" si="8"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>255</v>
+        <v>620</v>
       </c>
       <c r="C552">
         <f t="shared" si="8"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>458</v>
+        <v>281</v>
       </c>
       <c r="C553">
         <f t="shared" si="8"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>556</v>
+        <v>303</v>
       </c>
       <c r="C554">
         <f t="shared" si="8"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>541</v>
+        <v>419</v>
       </c>
       <c r="C555">
         <f t="shared" si="8"/>
@@ -7594,7 +7573,7 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>320</v>
+        <v>422</v>
       </c>
       <c r="C556">
         <f t="shared" si="8"/>
@@ -7603,7 +7582,7 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>623</v>
+        <v>584</v>
       </c>
       <c r="C557">
         <f t="shared" si="8"/>
@@ -7611,8 +7590,12 @@
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A558" t="s">
-        <v>282</v>
+      <c r="A558" t="str">
+        <f>REPLACE(B558,1,4,"")</f>
+        <v>Federal Reserve Bank Of Cleveland</v>
+      </c>
+      <c r="B558" t="s">
+        <v>385</v>
       </c>
       <c r="C558">
         <f t="shared" si="8"/>
@@ -7621,7 +7604,7 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C559">
         <f t="shared" si="8"/>
@@ -7630,7 +7613,7 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>420</v>
+        <v>597</v>
       </c>
       <c r="C560">
         <f t="shared" si="8"/>
@@ -7639,7 +7622,7 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>423</v>
+        <v>334</v>
       </c>
       <c r="C561">
         <f t="shared" si="8"/>
@@ -7648,7 +7631,7 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>586</v>
+        <v>480</v>
       </c>
       <c r="C562">
         <f t="shared" si="8"/>
@@ -7656,12 +7639,8 @@
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A563" t="str">
-        <f>REPLACE(B563,1,4,"")</f>
-        <v>Federal Reserve Bank Of Cleveland</v>
-      </c>
-      <c r="B563" t="s">
-        <v>386</v>
+      <c r="A563" t="s">
+        <v>471</v>
       </c>
       <c r="C563">
         <f t="shared" si="8"/>
@@ -7670,7 +7649,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>303</v>
+        <v>216</v>
       </c>
       <c r="C564">
         <f t="shared" si="8"/>
@@ -7679,7 +7658,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>599</v>
+        <v>158</v>
       </c>
       <c r="C565">
         <f t="shared" si="8"/>
@@ -7688,7 +7667,7 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="C566">
         <f t="shared" si="8"/>
@@ -7697,7 +7676,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="C567">
         <f t="shared" si="8"/>
@@ -7706,7 +7685,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>472</v>
+        <v>138</v>
       </c>
       <c r="C568">
         <f t="shared" si="8"/>
@@ -7715,52 +7694,52 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>217</v>
+        <v>51</v>
       </c>
       <c r="C569">
         <f t="shared" si="8"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>159</v>
+        <v>624</v>
       </c>
       <c r="C570">
         <f t="shared" si="8"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>312</v>
+        <v>126</v>
       </c>
       <c r="C571">
         <f t="shared" si="8"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>465</v>
+        <v>685</v>
       </c>
       <c r="C572">
         <f t="shared" si="8"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>139</v>
+        <v>414</v>
       </c>
       <c r="C573">
         <f t="shared" si="8"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>51</v>
+        <v>257</v>
       </c>
       <c r="C574">
         <f t="shared" si="8"/>
@@ -7769,7 +7748,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>627</v>
+        <v>494</v>
       </c>
       <c r="C575">
         <f t="shared" si="8"/>
@@ -7778,7 +7757,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>127</v>
+        <v>433</v>
       </c>
       <c r="C576">
         <f t="shared" si="8"/>
@@ -7787,7 +7766,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>691</v>
+        <v>192</v>
       </c>
       <c r="C577">
         <f t="shared" si="8"/>
@@ -7796,7 +7775,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>415</v>
+        <v>196</v>
       </c>
       <c r="C578">
         <f t="shared" si="8"/>
@@ -7805,7 +7784,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C579">
         <f t="shared" si="8"/>
@@ -7814,7 +7793,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>495</v>
+        <v>603</v>
       </c>
       <c r="C580">
         <f t="shared" si="8"/>
@@ -7823,7 +7802,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>434</v>
+        <v>14</v>
       </c>
       <c r="C581">
         <f t="shared" si="8"/>
@@ -7832,7 +7811,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>193</v>
+        <v>412</v>
       </c>
       <c r="C582">
         <f t="shared" si="8"/>
@@ -7841,61 +7820,61 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>197</v>
+        <v>440</v>
       </c>
       <c r="C583">
-        <f t="shared" si="8"/>
-        <v>34</v>
+        <f t="shared" ref="C583:C645" si="9">LEN(A583)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="C584">
-        <f t="shared" si="8"/>
-        <v>34</v>
+        <f t="shared" si="9"/>
+        <v>35</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>605</v>
+        <v>332</v>
       </c>
       <c r="C585">
-        <f t="shared" si="8"/>
-        <v>34</v>
+        <f t="shared" si="9"/>
+        <v>35</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>14</v>
+        <v>546</v>
       </c>
       <c r="C586">
-        <f t="shared" si="8"/>
-        <v>34</v>
+        <f t="shared" si="9"/>
+        <v>35</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="C587">
-        <f t="shared" si="8"/>
-        <v>34</v>
+        <f t="shared" si="9"/>
+        <v>35</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="C588">
-        <f t="shared" ref="C588:C651" si="9">LEN(A588)</f>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>318</v>
+        <v>663</v>
       </c>
       <c r="C589">
         <f t="shared" si="9"/>
@@ -7904,7 +7883,7 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>333</v>
+        <v>199</v>
       </c>
       <c r="C590">
         <f t="shared" si="9"/>
@@ -7913,52 +7892,52 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>548</v>
+        <v>443</v>
       </c>
       <c r="C591">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>464</v>
+        <v>53</v>
       </c>
       <c r="C592">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C593">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>668</v>
+        <v>549</v>
       </c>
       <c r="C594">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
       <c r="C595">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>444</v>
+        <v>518</v>
       </c>
       <c r="C596">
         <f t="shared" si="9"/>
@@ -7967,7 +7946,7 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>53</v>
+        <v>393</v>
       </c>
       <c r="C597">
         <f t="shared" si="9"/>
@@ -7976,7 +7955,7 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>457</v>
+        <v>589</v>
       </c>
       <c r="C598">
         <f t="shared" si="9"/>
@@ -7985,7 +7964,7 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>551</v>
+        <v>26</v>
       </c>
       <c r="C599">
         <f t="shared" si="9"/>
@@ -7994,7 +7973,7 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>454</v>
+        <v>354</v>
       </c>
       <c r="C600">
         <f t="shared" si="9"/>
@@ -8003,7 +7982,7 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>520</v>
+        <v>111</v>
       </c>
       <c r="C601">
         <f t="shared" si="9"/>
@@ -8011,8 +7990,12 @@
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A602" t="s">
-        <v>394</v>
+      <c r="A602" t="str">
+        <f>REPLACE(B602,1,4,"")</f>
+        <v>Trachtenberg School Of Public Policy</v>
+      </c>
+      <c r="B602" t="s">
+        <v>504</v>
       </c>
       <c r="C602">
         <f t="shared" si="9"/>
@@ -8021,7 +8004,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>591</v>
+        <v>508</v>
       </c>
       <c r="C603">
         <f t="shared" si="9"/>
@@ -8030,7 +8013,7 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="C604">
         <f t="shared" si="9"/>
@@ -8039,7 +8022,7 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>355</v>
+        <v>491</v>
       </c>
       <c r="C605">
         <f t="shared" si="9"/>
@@ -8048,7 +8031,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>511</v>
+        <v>349</v>
       </c>
       <c r="C606">
         <f t="shared" si="9"/>
@@ -8057,65 +8040,61 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>112</v>
+        <v>526</v>
       </c>
       <c r="C607">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A608" t="str">
-        <f>REPLACE(B608,1,4,"")</f>
-        <v>Trachtenberg School Of Public Policy</v>
-      </c>
-      <c r="B608" t="s">
-        <v>505</v>
+      <c r="A608" t="s">
+        <v>610</v>
       </c>
       <c r="C608">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>509</v>
+        <v>404</v>
       </c>
       <c r="C609">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="C610">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
       <c r="C611">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>350</v>
+        <v>108</v>
       </c>
       <c r="C612">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>528</v>
+        <v>647</v>
       </c>
       <c r="C613">
         <f t="shared" si="9"/>
@@ -8124,7 +8103,7 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>612</v>
+        <v>74</v>
       </c>
       <c r="C614">
         <f t="shared" si="9"/>
@@ -8133,7 +8112,7 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>405</v>
+        <v>280</v>
       </c>
       <c r="C615">
         <f t="shared" si="9"/>
@@ -8142,7 +8121,7 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="C616">
         <f t="shared" si="9"/>
@@ -8151,7 +8130,7 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="C617">
         <f t="shared" si="9"/>
@@ -8160,7 +8139,7 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>109</v>
+        <v>594</v>
       </c>
       <c r="C618">
         <f t="shared" si="9"/>
@@ -8169,7 +8148,7 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>650</v>
+        <v>33</v>
       </c>
       <c r="C619">
         <f t="shared" si="9"/>
@@ -8178,7 +8157,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C620">
         <f t="shared" si="9"/>
@@ -8187,61 +8166,61 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>281</v>
+        <v>521</v>
       </c>
       <c r="C621">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>256</v>
+        <v>571</v>
       </c>
       <c r="C622">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>576</v>
+        <v>372</v>
       </c>
       <c r="C623">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="C624">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>33</v>
+        <v>515</v>
       </c>
       <c r="C625">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>12</v>
+        <v>547</v>
       </c>
       <c r="C626">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="C627">
         <f t="shared" si="9"/>
@@ -8250,7 +8229,7 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="C628">
         <f t="shared" si="9"/>
@@ -8259,61 +8238,61 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>373</v>
+        <v>37</v>
       </c>
       <c r="C629">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="C630">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>517</v>
+        <v>637</v>
       </c>
       <c r="C631">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>549</v>
+        <v>382</v>
       </c>
       <c r="C632">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>587</v>
+        <v>533</v>
       </c>
       <c r="C633">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>545</v>
+        <v>680</v>
       </c>
       <c r="C634">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>37</v>
+        <v>413</v>
       </c>
       <c r="C635">
         <f t="shared" si="9"/>
@@ -8322,450 +8301,396 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>546</v>
+        <v>411</v>
       </c>
       <c r="C636">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>640</v>
+        <v>124</v>
       </c>
       <c r="C637">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>383</v>
+        <v>89</v>
       </c>
       <c r="C638">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>535</v>
+        <v>425</v>
       </c>
       <c r="C639">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>686</v>
+        <v>41</v>
       </c>
       <c r="C640">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>414</v>
+        <v>538</v>
       </c>
       <c r="C641">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>412</v>
+        <v>266</v>
       </c>
       <c r="C642">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="C643">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C644">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>426</v>
+        <v>558</v>
       </c>
       <c r="C645">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
+        <v>133</v>
+      </c>
+      <c r="C646">
+        <f t="shared" ref="C646:C678" si="10">LEN(A646)</f>
         <v>41</v>
-      </c>
-      <c r="C646">
-        <f t="shared" si="9"/>
-        <v>40</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>540</v>
+        <v>634</v>
+      </c>
+      <c r="B647" t="s">
+        <v>635</v>
       </c>
       <c r="C647">
-        <f t="shared" si="9"/>
-        <v>41</v>
+        <f t="shared" si="10"/>
+        <v>42</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="C648">
-        <f t="shared" si="9"/>
-        <v>41</v>
+        <f t="shared" si="10"/>
+        <v>42</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>219</v>
+        <v>522</v>
       </c>
       <c r="C649">
-        <f t="shared" si="9"/>
-        <v>41</v>
+        <f t="shared" si="10"/>
+        <v>42</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C650">
-        <f t="shared" si="9"/>
-        <v>41</v>
+        <f t="shared" si="10"/>
+        <v>42</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>560</v>
+        <v>287</v>
       </c>
       <c r="C651">
-        <f t="shared" si="9"/>
-        <v>41</v>
+        <f t="shared" si="10"/>
+        <v>42</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>134</v>
+        <v>490</v>
       </c>
       <c r="C652">
-        <f t="shared" ref="C652:C684" si="10">LEN(A652)</f>
-        <v>41</v>
+        <f t="shared" si="10"/>
+        <v>42</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>637</v>
-      </c>
-      <c r="B653" t="s">
-        <v>638</v>
+        <v>370</v>
       </c>
       <c r="C653">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>421</v>
+        <v>238</v>
       </c>
       <c r="C654">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>524</v>
+        <v>162</v>
       </c>
       <c r="C655">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>94</v>
+        <v>579</v>
       </c>
       <c r="C656">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>288</v>
+        <v>592</v>
       </c>
       <c r="C657">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>491</v>
+        <v>633</v>
+      </c>
+      <c r="B658" t="s">
+        <v>632</v>
       </c>
       <c r="C658">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>371</v>
+        <v>483</v>
       </c>
       <c r="C659">
         <f t="shared" si="10"/>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>239</v>
+        <v>426</v>
       </c>
       <c r="C660">
         <f t="shared" si="10"/>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C661">
         <f t="shared" si="10"/>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="C662">
         <f t="shared" si="10"/>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>594</v>
+        <v>100</v>
       </c>
       <c r="C663">
         <f t="shared" si="10"/>
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>636</v>
-      </c>
-      <c r="B664" t="s">
-        <v>635</v>
+        <v>523</v>
       </c>
       <c r="C664">
         <f t="shared" si="10"/>
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>484</v>
+        <v>640</v>
       </c>
       <c r="C665">
         <f t="shared" si="10"/>
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>427</v>
+        <v>517</v>
       </c>
       <c r="C666">
         <f t="shared" si="10"/>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>158</v>
+        <v>375</v>
       </c>
       <c r="C667">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>558</v>
+        <v>604</v>
       </c>
       <c r="C668">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>101</v>
+        <v>503</v>
       </c>
       <c r="C669">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>525</v>
+        <v>110</v>
       </c>
       <c r="C670">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>643</v>
+        <v>590</v>
       </c>
       <c r="C671">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>519</v>
+        <v>269</v>
       </c>
       <c r="C672">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>376</v>
+        <v>601</v>
       </c>
       <c r="C673">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>606</v>
+        <v>498</v>
       </c>
       <c r="C674">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>504</v>
+        <v>629</v>
+      </c>
+      <c r="B675" t="s">
+        <v>628</v>
       </c>
       <c r="C675">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>111</v>
+        <v>569</v>
       </c>
       <c r="C676">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>592</v>
+        <v>388</v>
       </c>
       <c r="C677">
         <f t="shared" si="10"/>
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="C678">
-        <f t="shared" si="10"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A679" t="s">
-        <v>603</v>
-      </c>
-      <c r="C679">
-        <f t="shared" si="10"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A680" t="s">
-        <v>499</v>
-      </c>
-      <c r="C680">
-        <f t="shared" si="10"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A681" t="s">
-        <v>632</v>
-      </c>
-      <c r="B681" t="s">
-        <v>631</v>
-      </c>
-      <c r="C681">
-        <f t="shared" si="10"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A682" t="s">
-        <v>571</v>
-      </c>
-      <c r="C682">
-        <f t="shared" si="10"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A683" t="s">
-        <v>389</v>
-      </c>
-      <c r="C683">
-        <f t="shared" si="10"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A684" t="s">
-        <v>296</v>
-      </c>
-      <c r="C684">
         <f t="shared" si="10"/>
         <v>67</v>
       </c>
@@ -8776,7 +8701,7 @@
       <sortCondition ref="C1:C700"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="D3 D8 D10:D11 A9:A1048576 A1:A7">
+  <conditionalFormatting sqref="D5 D2 D7:D8 A6:A1048576 A1:A4">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2_Extracting affilitations/2_Fuzzy matching/University list/Unique Universities.xlsx
+++ b/2_Extracting affilitations/2_Fuzzy matching/University list/Unique Universities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MattJohnson/Desktop/Affiliations/2_Extracting affilitations/2_Fuzzy matching/University list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A0D18B-0950-EF45-999E-8EFA3437B325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A06BA-069F-7949-B172-2749D1A211B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2830,17 +2830,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3191,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N850"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A707" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B717" sqref="B717"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11203,20 +11193,20 @@
       <sortCondition ref="C1:C678"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="A602:A640">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A641:A654">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A770:A773 D8 D2:D5 D10:D11 A9:A601 A1:A7 A777:A1048576 A686:A766">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L42:L80">
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L82:L95">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L42:L80">
-    <cfRule type="duplicateValues" dxfId="3" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A602:A640">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A641:A654">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/2_Extracting affilitations/2_Fuzzy matching/University list/Unique Universities.xlsx
+++ b/2_Extracting affilitations/2_Fuzzy matching/University list/Unique Universities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MattJohnson/Desktop/Affiliations/2_Extracting affilitations/2_Fuzzy matching/University list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A06BA-069F-7949-B172-2749D1A211B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4F96E5-ED81-C147-9960-BB081F726C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32680" yWindow="2100" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="901">
   <si>
     <t>Affilliation</t>
   </si>
@@ -3179,10 +3179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N850"/>
+  <dimension ref="A1:N851"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3262,678 +3262,670 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>571</v>
-      </c>
-      <c r="C7">
-        <f>LEN(A7)</f>
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>615</v>
-      </c>
-      <c r="J7" t="s">
-        <v>617</v>
+      <c r="A7" s="2" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>571</v>
       </c>
       <c r="C8">
-        <f>LEN(D8)</f>
+        <f>LEN(A8)</f>
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>597</v>
-      </c>
       <c r="I8" t="s">
-        <v>568</v>
+        <v>615</v>
       </c>
       <c r="J8" t="s">
-        <v>616</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>568</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>592</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <f>LEN(A9)</f>
+        <f>LEN(D9)</f>
         <v>8</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>597</v>
+      </c>
       <c r="I9" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="J9" t="s">
-        <v>617</v>
-      </c>
-      <c r="L9" t="s">
-        <v>618</v>
-      </c>
-      <c r="M9" t="s">
-        <v>700</v>
-      </c>
-      <c r="N9" t="str">
-        <f>_xlfn.CONCAT(L9,M9)</f>
-        <v>Christ's College, Cambridge</v>
+        <v>616</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>606</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>592</v>
+      </c>
       <c r="C10">
-        <f>LEN(D10)</f>
+        <f>LEN(A10)</f>
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="E10">
-        <v>46</v>
-      </c>
       <c r="I10" t="s">
-        <v>715</v>
+        <v>597</v>
       </c>
       <c r="J10" t="s">
-        <v>716</v>
+        <v>617</v>
       </c>
       <c r="L10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M10" t="s">
         <v>700</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" ref="N10:N72" si="0">_xlfn.CONCAT(L10,M10)</f>
-        <v>Churchill College, Cambridge</v>
+        <f>_xlfn.CONCAT(L10,M10)</f>
+        <v>Christ's College, Cambridge</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>610</v>
-      </c>
+      <c r="A11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11">
         <f>LEN(D11)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>568</v>
+        <v>602</v>
+      </c>
+      <c r="E11">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>715</v>
+      </c>
+      <c r="J11" t="s">
+        <v>716</v>
       </c>
       <c r="L11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M11" t="s">
         <v>700</v>
       </c>
       <c r="N11" t="str">
+        <f t="shared" ref="N11:N73" si="0">_xlfn.CONCAT(L11,M11)</f>
+        <v>Churchill College, Cambridge</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C12">
+        <f>LEN(D12)</f>
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="L12" t="s">
+        <v>620</v>
+      </c>
+      <c r="M12" t="s">
+        <v>700</v>
+      </c>
+      <c r="N12" t="str">
         <f t="shared" si="0"/>
         <v>Clare College, Cambridge</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>601</v>
       </c>
-      <c r="C12">
-        <f t="shared" ref="C12:C74" si="1">LEN(A12)</f>
+      <c r="C13">
+        <f t="shared" ref="C13:C75" si="1">LEN(A13)</f>
         <v>10</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L13" t="s">
         <v>621</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M13" t="s">
         <v>700</v>
       </c>
-      <c r="N12" t="str">
+      <c r="N13" t="str">
         <f t="shared" si="0"/>
         <v>Clare Hall, Cambridge</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>593</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>594</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L14" t="s">
         <v>625</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M14" t="s">
         <v>700</v>
       </c>
-      <c r="N13" t="str">
+      <c r="N14" t="str">
         <f t="shared" si="0"/>
         <v>Corpus Christi College, Cambridge</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f>REPLACE(B14,1,4,"")</f>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>REPLACE(B15,1,4,"")</f>
         <v>City College</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>155</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L15" t="s">
         <v>622</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M15" t="s">
         <v>700</v>
       </c>
-      <c r="N14" t="str">
+      <c r="N15" t="str">
         <f t="shared" si="0"/>
         <v>Darwin College, Cambridge</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>387</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L16" t="s">
         <v>633</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M16" t="s">
         <v>700</v>
       </c>
-      <c r="N15" t="str">
+      <c r="N16" t="str">
         <f t="shared" si="0"/>
         <v>Downing College, Cambridge</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="L16" t="s">
-        <v>626</v>
-      </c>
-      <c r="M16" t="s">
-        <v>700</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="0"/>
-        <v>Emmanuel College, Cambridge</v>
-      </c>
-    </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="M17" t="s">
         <v>700</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="0"/>
-        <v>Fitzwilliam College, Cambridge</v>
+        <v>Emmanuel College, Cambridge</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>573</v>
+        <v>121</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L18" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="M18" t="s">
         <v>700</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="0"/>
-        <v>Girton College, Cambridge</v>
+        <v>Fitzwilliam College, Cambridge</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>527</v>
+        <v>573</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L19" t="s">
-        <v>683</v>
+        <v>637</v>
       </c>
       <c r="M19" t="s">
         <v>700</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="0"/>
-        <v>Gonville &amp; Caius College, Cambridge</v>
+        <v>Girton College, Cambridge</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>527</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L20" t="s">
-        <v>628</v>
+        <v>683</v>
       </c>
       <c r="M20" t="s">
         <v>700</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="0"/>
-        <v>Homerton College, Cambridge</v>
+        <v>Gonville &amp; Caius College, Cambridge</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L21" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="M21" t="s">
         <v>700</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="0"/>
-        <v>Hughes Hall, Cambridge</v>
+        <v>Homerton College, Cambridge</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>277</v>
+        <v>117</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L22" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="M22" t="s">
         <v>700</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="0"/>
-        <v>Jesus College, Cambridge</v>
+        <v>Hughes Hall, Cambridge</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>277</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L23" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="M23" t="s">
         <v>700</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="0"/>
-        <v>King's College, Cambridge</v>
+        <v>Jesus College, Cambridge</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L24" t="s">
-        <v>684</v>
+        <v>636</v>
       </c>
       <c r="M24" t="s">
         <v>700</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="0"/>
-        <v>Lucy Cavendish College, Cambridge</v>
+        <v>King's College, Cambridge</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L25" t="s">
-        <v>634</v>
+        <v>684</v>
       </c>
       <c r="M25" t="s">
         <v>700</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="0"/>
-        <v>Magdalene College, Cambridge</v>
+        <v>Lucy Cavendish College, Cambridge</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>416</v>
+        <v>213</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L26" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="M26" t="s">
         <v>700</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="0"/>
-        <v>Murray Edwards College, Cambridge</v>
+        <v>Magdalene College, Cambridge</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>520</v>
+        <v>416</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L27" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="M27" t="s">
         <v>700</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="0"/>
-        <v>Newnham College, Cambridge</v>
+        <v>Murray Edwards College, Cambridge</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>520</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L28" t="s">
-        <v>179</v>
+        <v>631</v>
       </c>
       <c r="M28" t="s">
         <v>700</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="0"/>
-        <v>Pembroke College, Cambridge</v>
+        <v>Newnham College, Cambridge</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L29" t="s">
-        <v>635</v>
+        <v>179</v>
       </c>
       <c r="M29" t="s">
         <v>700</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="0"/>
-        <v>Peterhouse, Cambridge</v>
+        <v>Pembroke College, Cambridge</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L30" t="s">
-        <v>192</v>
+        <v>635</v>
       </c>
       <c r="M30" t="s">
         <v>700</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="0"/>
-        <v>Queens' College, Cambridge</v>
+        <v>Peterhouse, Cambridge</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L31" t="s">
-        <v>640</v>
+        <v>192</v>
       </c>
       <c r="M31" t="s">
         <v>700</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="0"/>
-        <v>Robinson College, Cambridge</v>
+        <v>Queens' College, Cambridge</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L32" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="M32" t="s">
         <v>700</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="0"/>
-        <v>Selwyn College, Cambridge</v>
+        <v>Robinson College, Cambridge</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L33" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="M33" t="s">
         <v>700</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="0"/>
-        <v>Sidney Sussex College, Cambridge</v>
+        <v>Selwyn College, Cambridge</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>547</v>
-      </c>
-      <c r="B34" t="s">
-        <v>545</v>
+        <v>120</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L34" t="s">
-        <v>685</v>
+        <v>642</v>
       </c>
       <c r="M34" t="s">
         <v>700</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="0"/>
-        <v>St Catharine's College, Cambridge</v>
+        <v>Sidney Sussex College, Cambridge</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>547</v>
+      </c>
+      <c r="B35" t="s">
+        <v>545</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L35" t="s">
-        <v>627</v>
+        <v>685</v>
       </c>
       <c r="M35" t="s">
         <v>700</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="0"/>
-        <v>St Edmund's College, Cambridge</v>
+        <v>St Catharine's College, Cambridge</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>362</v>
+        <v>129</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L36" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="M36" t="s">
         <v>700</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="0"/>
-        <v>St John's College, Cambridge</v>
+        <v>St Edmund's College, Cambridge</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L37" t="s">
-        <v>120</v>
+        <v>624</v>
       </c>
       <c r="M37" t="s">
         <v>700</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="0"/>
-        <v>Trinity College, Cambridge</v>
+        <v>St John's College, Cambridge</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L38" t="s">
-        <v>623</v>
+        <v>120</v>
       </c>
       <c r="M38" t="s">
         <v>700</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="0"/>
-        <v>Trinity Hall, Cambridge</v>
+        <v>Trinity College, Cambridge</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L39" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="M39" t="s">
         <v>700</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="0"/>
-        <v>Wolfson College, Cambridge</v>
+        <v>Trinity Hall, Cambridge</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
+      <c r="L40" t="s">
+        <v>639</v>
+      </c>
+      <c r="M40" t="s">
+        <v>700</v>
+      </c>
       <c r="N40" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Wolfson College, Cambridge</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
@@ -3946,1036 +3938,1040 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>384</v>
+        <v>23</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="L42" t="s">
-        <v>643</v>
-      </c>
-      <c r="M42" t="s">
-        <v>701</v>
-      </c>
       <c r="N42" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> All Souls College, Oxford</v>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>268</v>
+        <v>384</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L43" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M43" t="s">
         <v>701</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Balliol College, Oxford</v>
+        <v xml:space="preserve"> All Souls College, Oxford</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>371</v>
+        <v>268</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L44" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M44" t="s">
         <v>701</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Brasenose College, Oxford</v>
+        <v xml:space="preserve"> Balliol College, Oxford</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>222</v>
+        <v>371</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L45" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M45" t="s">
         <v>701</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Christ Church, Oxford</v>
+        <v xml:space="preserve"> Brasenose College, Oxford</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>342</v>
+        <v>222</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L46" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M46" t="s">
         <v>701</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Corpus Christi College, Oxford</v>
+        <v xml:space="preserve"> Christ Church, Oxford</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>342</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L47" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M47" t="s">
         <v>701</v>
       </c>
       <c r="N47" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Exeter College, Oxford</v>
+        <v xml:space="preserve"> Corpus Christi College, Oxford</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>536</v>
+        <v>57</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L48" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M48" t="s">
         <v>701</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Green Templeton College, Oxford</v>
+        <v xml:space="preserve"> Exeter College, Oxford</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>536</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L49" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="M49" t="s">
         <v>701</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Harris Manchester College, Oxford</v>
+        <v xml:space="preserve"> Green Templeton College, Oxford</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L50" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M50" t="s">
         <v>701</v>
       </c>
       <c r="N50" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Hertford College, Oxford</v>
+        <v xml:space="preserve"> Harris Manchester College, Oxford</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L51" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M51" t="s">
         <v>701</v>
       </c>
       <c r="N51" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Jesus College, Oxford</v>
+        <v xml:space="preserve"> Hertford College, Oxford</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L52" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M52" t="s">
         <v>701</v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Keble College, Oxford</v>
+        <v xml:space="preserve"> Jesus College, Oxford</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L53" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M53" t="s">
         <v>701</v>
       </c>
       <c r="N53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Kellogg College, Oxford</v>
+        <v xml:space="preserve"> Keble College, Oxford</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L54" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M54" t="s">
         <v>701</v>
       </c>
       <c r="N54" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Lady Margaret Hall, Oxford</v>
+        <v xml:space="preserve"> Kellogg College, Oxford</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L55" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M55" t="s">
         <v>701</v>
       </c>
       <c r="N55" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Linacre College, Oxford</v>
+        <v xml:space="preserve"> Lady Margaret Hall, Oxford</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>550</v>
+        <v>236</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L56" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M56" t="s">
         <v>701</v>
       </c>
       <c r="N56" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Lincoln College, Oxford</v>
+        <v xml:space="preserve"> Linacre College, Oxford</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>363</v>
+        <v>550</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L57" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M57" t="s">
         <v>701</v>
       </c>
       <c r="N57" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Magdalen College, Oxford</v>
+        <v xml:space="preserve"> Lincoln College, Oxford</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L58" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M58" t="s">
         <v>701</v>
       </c>
       <c r="N58" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Mansfield College, Oxford</v>
+        <v xml:space="preserve"> Magdalen College, Oxford</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>320</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L59" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M59" t="s">
         <v>701</v>
       </c>
       <c r="N59" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Merton College, Oxford</v>
+        <v xml:space="preserve"> Mansfield College, Oxford</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>257</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L60" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M60" t="s">
         <v>701</v>
       </c>
       <c r="N60" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> New College, Oxford</v>
+        <v xml:space="preserve"> Merton College, Oxford</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L61" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M61" t="s">
         <v>701</v>
       </c>
       <c r="N61" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Nuffield College, Oxford</v>
+        <v xml:space="preserve"> New College, Oxford</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L62" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M62" t="s">
         <v>701</v>
       </c>
       <c r="N62" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Oriel College, Oxford</v>
+        <v xml:space="preserve"> Nuffield College, Oxford</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>248</v>
+        <v>158</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="L63" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M63" t="s">
         <v>701</v>
       </c>
       <c r="N63" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Pembroke College, Oxford</v>
+        <v xml:space="preserve"> Oriel College, Oxford</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="L64" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M64" t="s">
         <v>701</v>
       </c>
       <c r="N64" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Reuben College, Oxford</v>
+        <v xml:space="preserve"> Pembroke College, Oxford</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="L65" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M65" t="s">
         <v>701</v>
       </c>
       <c r="N65" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> Somerville College, Oxford</v>
+        <v xml:space="preserve"> Reuben College, Oxford</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="L66" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M66" t="s">
         <v>701</v>
       </c>
       <c r="N66" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> St Anne's College, Oxford</v>
+        <v xml:space="preserve"> Somerville College, Oxford</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>264</v>
+        <v>145</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="L67" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M67" t="s">
         <v>701</v>
       </c>
       <c r="N67" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> St Antony's College, Oxford</v>
+        <v xml:space="preserve"> St Anne's College, Oxford</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="L68" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="M68" t="s">
         <v>701</v>
       </c>
       <c r="N68" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> St Catherine's College, Oxford</v>
+        <v xml:space="preserve"> St Antony's College, Oxford</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="L69" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M69" t="s">
         <v>701</v>
       </c>
       <c r="N69" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> St Cross College, Oxford</v>
+        <v xml:space="preserve"> St Catherine's College, Oxford</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="L70" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M70" t="s">
         <v>701</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> St Edmund Hall, Oxford</v>
+        <v xml:space="preserve"> St Cross College, Oxford</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="L71" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M71" t="s">
         <v>701</v>
       </c>
       <c r="N71" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> St Hilda's College, Oxford</v>
+        <v xml:space="preserve"> St Edmund Hall, Oxford</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="L72" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M72" t="s">
         <v>701</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> St Hugh's College, Oxford</v>
+        <v xml:space="preserve"> St Hilda's College, Oxford</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>402</v>
+        <v>127</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="L73" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M73" t="s">
         <v>701</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" ref="N73:N95" si="2">_xlfn.CONCAT(L73,M73)</f>
-        <v xml:space="preserve"> St John's College, Oxford</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> St Hugh's College, Oxford</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>345</v>
+        <v>402</v>
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="L74" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M74" t="s">
         <v>701</v>
       </c>
       <c r="N74" t="str">
+        <f t="shared" ref="N74:N96" si="2">_xlfn.CONCAT(L74,M74)</f>
+        <v xml:space="preserve"> St John's College, Oxford</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>345</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="L75" t="s">
+        <v>676</v>
+      </c>
+      <c r="M75" t="s">
+        <v>701</v>
+      </c>
+      <c r="N75" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> St Peter's College, Oxford</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>531</v>
       </c>
-      <c r="C75">
-        <f t="shared" ref="C75:C136" si="3">LEN(A75)</f>
+      <c r="C76">
+        <f t="shared" ref="C76:C137" si="3">LEN(A76)</f>
         <v>17</v>
       </c>
-      <c r="L75" t="s">
+      <c r="L76" t="s">
         <v>677</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M76" t="s">
         <v>701</v>
       </c>
-      <c r="N75" t="str">
+      <c r="N76" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> The Queen's College, Oxford</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="L76" t="s">
-        <v>678</v>
-      </c>
-      <c r="M76" t="s">
-        <v>701</v>
-      </c>
-      <c r="N76" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> Trinity College, Oxford</v>
-      </c>
-    </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="C77">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="L77" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M77" t="s">
         <v>701</v>
       </c>
       <c r="N77" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> University College, Oxford</v>
+        <v xml:space="preserve"> Trinity College, Oxford</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="C78">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="L78" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M78" t="s">
         <v>701</v>
       </c>
       <c r="N78" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> Wadham College, Oxford</v>
+        <v xml:space="preserve"> University College, Oxford</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>331</v>
+        <v>93</v>
       </c>
       <c r="C79">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="L79" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M79" t="s">
         <v>701</v>
       </c>
       <c r="N79" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> Wolfson College, Oxford</v>
+        <v xml:space="preserve"> Wadham College, Oxford</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>331</v>
       </c>
       <c r="C80">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="L80" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M80" t="s">
         <v>701</v>
       </c>
       <c r="N80" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> Worcester College, Oxford</v>
+        <v xml:space="preserve"> Wolfson College, Oxford</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="C81">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
+      <c r="L81" t="s">
+        <v>682</v>
+      </c>
+      <c r="M81" t="s">
+        <v>701</v>
+      </c>
       <c r="N81" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> Worcester College, Oxford</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="C82">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="L82" t="s">
-        <v>686</v>
-      </c>
-      <c r="M82" t="s">
-        <v>702</v>
-      </c>
       <c r="N82" t="str">
         <f t="shared" si="2"/>
-        <v>Berkeley College, Yale</v>
+        <v/>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>287</v>
+        <v>178</v>
       </c>
       <c r="C83">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="L83" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M83" t="s">
         <v>702</v>
       </c>
       <c r="N83" t="str">
         <f t="shared" si="2"/>
-        <v>Branford College, Yale</v>
+        <v>Berkeley College, Yale</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>462</v>
+        <v>287</v>
       </c>
       <c r="C84">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="L84" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M84" t="s">
         <v>702</v>
       </c>
       <c r="N84" t="str">
         <f t="shared" si="2"/>
-        <v>Davenport College, Yale</v>
+        <v>Branford College, Yale</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>462</v>
       </c>
       <c r="C85">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="L85" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="M85" t="s">
         <v>702</v>
       </c>
       <c r="N85" t="str">
         <f t="shared" si="2"/>
-        <v>Ezra Stiles College, Yale</v>
+        <v>Davenport College, Yale</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="C86">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="L86" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M86" t="s">
         <v>702</v>
       </c>
       <c r="N86" t="str">
         <f t="shared" si="2"/>
-        <v>Jonathan Edwards College, Yale</v>
+        <v>Ezra Stiles College, Yale</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="C87">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="L87" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M87" t="s">
         <v>702</v>
       </c>
       <c r="N87" t="str">
         <f t="shared" si="2"/>
-        <v>Benjamin Franklin College, Yale</v>
+        <v>Jonathan Edwards College, Yale</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C88">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="L88" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M88" t="s">
         <v>702</v>
       </c>
       <c r="N88" t="str">
         <f t="shared" si="2"/>
-        <v>Grace Hopper College*, Yale</v>
+        <v>Benjamin Franklin College, Yale</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="C89">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="L89" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M89" t="s">
         <v>702</v>
       </c>
       <c r="N89" t="str">
         <f t="shared" si="2"/>
-        <v>Morse College, Yale</v>
+        <v>Grace Hopper College*, Yale</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>551</v>
+        <v>198</v>
       </c>
       <c r="C90">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="L90" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M90" t="s">
         <v>702</v>
       </c>
       <c r="N90" t="str">
         <f t="shared" si="2"/>
-        <v>Pauli Murray College, Yale</v>
+        <v>Morse College, Yale</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>551</v>
       </c>
       <c r="C91">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="L91" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M91" t="s">
         <v>702</v>
       </c>
       <c r="N91" t="str">
         <f t="shared" si="2"/>
-        <v>Pierson College, Yale</v>
+        <v>Pauli Murray College, Yale</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>289</v>
+        <v>90</v>
       </c>
       <c r="C92">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="L92" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M92" t="s">
         <v>702</v>
       </c>
       <c r="N92" t="str">
         <f t="shared" si="2"/>
-        <v>Saybrook College, Yale</v>
+        <v>Pierson College, Yale</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="C93">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="L93" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M93" t="s">
         <v>702</v>
       </c>
       <c r="N93" t="str">
         <f t="shared" si="2"/>
-        <v>Silliman College, Yale</v>
+        <v>Saybrook College, Yale</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>611</v>
+        <v>52</v>
       </c>
       <c r="C94">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L94" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M94" t="s">
         <v>702</v>
       </c>
       <c r="N94" t="str">
         <f t="shared" si="2"/>
-        <v>Timothy Dwight College, Yale</v>
+        <v>Silliman College, Yale</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>524</v>
+        <v>611</v>
       </c>
       <c r="C95">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="L95" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M95" t="s">
         <v>702</v>
       </c>
       <c r="N95" t="str">
         <f t="shared" si="2"/>
-        <v>Trumbull College, Yale</v>
+        <v>Timothy Dwight College, Yale</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>400</v>
+        <v>524</v>
       </c>
       <c r="C96">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
+      <c r="L96" t="s">
+        <v>699</v>
+      </c>
+      <c r="M96" t="s">
+        <v>702</v>
+      </c>
+      <c r="N96" t="str">
+        <f t="shared" si="2"/>
+        <v>Trumbull College, Yale</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="C97">
         <f t="shared" si="3"/>
@@ -4984,7 +4980,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>223</v>
+        <v>475</v>
       </c>
       <c r="C98">
         <f t="shared" si="3"/>
@@ -4993,7 +4989,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c r="C99">
         <f t="shared" si="3"/>
@@ -5002,7 +4998,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C100">
         <f t="shared" si="3"/>
@@ -5011,7 +5007,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>391</v>
+        <v>39</v>
       </c>
       <c r="C101">
         <f t="shared" si="3"/>
@@ -5020,7 +5016,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>180</v>
+        <v>391</v>
       </c>
       <c r="C102">
         <f t="shared" si="3"/>
@@ -5029,7 +5025,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>508</v>
+        <v>180</v>
       </c>
       <c r="C103">
         <f t="shared" si="3"/>
@@ -5038,7 +5034,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>59</v>
+        <v>508</v>
       </c>
       <c r="C104">
         <f t="shared" si="3"/>
@@ -5047,7 +5043,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
       <c r="C105">
         <f t="shared" si="3"/>
@@ -5056,7 +5052,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>33</v>
+        <v>318</v>
       </c>
       <c r="C106">
         <f t="shared" si="3"/>
@@ -5065,7 +5061,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>488</v>
+        <v>33</v>
       </c>
       <c r="C107">
         <f t="shared" si="3"/>
@@ -5074,7 +5070,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>294</v>
+        <v>488</v>
       </c>
       <c r="C108">
         <f t="shared" si="3"/>
@@ -5083,7 +5079,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>535</v>
+        <v>294</v>
       </c>
       <c r="C109">
         <f t="shared" si="3"/>
@@ -5092,7 +5088,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>313</v>
+        <v>535</v>
       </c>
       <c r="C110">
         <f t="shared" si="3"/>
@@ -5101,7 +5097,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>208</v>
+        <v>313</v>
       </c>
       <c r="C111">
         <f t="shared" si="3"/>
@@ -5110,7 +5106,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="C112">
         <f t="shared" si="3"/>
@@ -5119,7 +5115,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="C113">
         <f t="shared" si="3"/>
@@ -5128,7 +5124,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>467</v>
+        <v>116</v>
       </c>
       <c r="C114">
         <f t="shared" si="3"/>
@@ -5137,7 +5133,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>76</v>
+        <v>467</v>
       </c>
       <c r="C115">
         <f t="shared" si="3"/>
@@ -5146,7 +5142,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C116">
         <f t="shared" si="3"/>
@@ -5155,7 +5151,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>392</v>
+        <v>66</v>
       </c>
       <c r="C117">
         <f t="shared" si="3"/>
@@ -5164,7 +5160,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>584</v>
+        <v>392</v>
       </c>
       <c r="C118">
         <f t="shared" si="3"/>
@@ -5173,7 +5169,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>368</v>
+        <v>584</v>
       </c>
       <c r="C119">
         <f t="shared" si="3"/>
@@ -5182,7 +5178,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="C120">
         <f t="shared" si="3"/>
@@ -5191,7 +5187,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>422</v>
+        <v>321</v>
       </c>
       <c r="C121">
         <f t="shared" si="3"/>
@@ -5200,7 +5196,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>284</v>
+        <v>422</v>
       </c>
       <c r="C122">
         <f t="shared" si="3"/>
@@ -5209,7 +5205,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>494</v>
+        <v>284</v>
       </c>
       <c r="C123">
         <f t="shared" si="3"/>
@@ -5218,7 +5214,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>582</v>
+        <v>494</v>
       </c>
       <c r="C124">
         <f t="shared" si="3"/>
@@ -5227,7 +5223,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>534</v>
+        <v>582</v>
       </c>
       <c r="C125">
         <f t="shared" si="3"/>
@@ -5236,7 +5232,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>293</v>
+        <v>534</v>
       </c>
       <c r="C126">
         <f t="shared" si="3"/>
@@ -5245,7 +5241,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>399</v>
+        <v>293</v>
       </c>
       <c r="C127">
         <f t="shared" si="3"/>
@@ -5254,7 +5250,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>330</v>
+        <v>399</v>
       </c>
       <c r="C128">
         <f t="shared" si="3"/>
@@ -5263,16 +5259,16 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>572</v>
+        <v>330</v>
       </c>
       <c r="C129">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>197</v>
+        <v>572</v>
       </c>
       <c r="C130">
         <f t="shared" si="3"/>
@@ -5281,7 +5277,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>333</v>
+        <v>197</v>
       </c>
       <c r="C131">
         <f t="shared" si="3"/>
@@ -5290,7 +5286,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>174</v>
+        <v>333</v>
       </c>
       <c r="C132">
         <f t="shared" si="3"/>
@@ -5299,7 +5295,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>269</v>
+        <v>174</v>
       </c>
       <c r="C133">
         <f t="shared" si="3"/>
@@ -5308,7 +5304,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>169</v>
+        <v>269</v>
       </c>
       <c r="C134">
         <f t="shared" si="3"/>
@@ -5317,7 +5313,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="C135">
         <f t="shared" si="3"/>
@@ -5326,7 +5322,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>439</v>
+        <v>231</v>
       </c>
       <c r="C136">
         <f t="shared" si="3"/>
@@ -5335,25 +5331,25 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>540</v>
+        <v>439</v>
       </c>
       <c r="C137">
-        <f t="shared" ref="C137:C200" si="4">LEN(A137)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>266</v>
+        <v>540</v>
       </c>
       <c r="C138">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C138:C201" si="4">LEN(A138)</f>
         <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>432</v>
+        <v>266</v>
       </c>
       <c r="C139">
         <f t="shared" si="4"/>
@@ -5362,7 +5358,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>54</v>
+        <v>432</v>
       </c>
       <c r="C140">
         <f t="shared" si="4"/>
@@ -5371,7 +5367,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="C141">
         <f t="shared" si="4"/>
@@ -5380,7 +5376,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>591</v>
+        <v>132</v>
       </c>
       <c r="C142">
         <f t="shared" si="4"/>
@@ -5389,7 +5385,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>237</v>
+        <v>591</v>
       </c>
       <c r="C143">
         <f t="shared" si="4"/>
@@ -5398,7 +5394,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="C144">
         <f t="shared" si="4"/>
@@ -5407,7 +5403,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>595</v>
+        <v>262</v>
       </c>
       <c r="C145">
         <f t="shared" si="4"/>
@@ -5416,7 +5412,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>446</v>
+        <v>595</v>
       </c>
       <c r="C146">
         <f t="shared" si="4"/>
@@ -5425,7 +5421,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>15</v>
+        <v>446</v>
       </c>
       <c r="C147">
         <f t="shared" si="4"/>
@@ -5434,7 +5430,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C148">
         <f t="shared" si="4"/>
@@ -5443,7 +5439,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="C149">
         <f t="shared" si="4"/>
@@ -5452,7 +5448,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>46</v>
+        <v>273</v>
       </c>
       <c r="C150">
         <f t="shared" si="4"/>
@@ -5461,7 +5457,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>409</v>
+        <v>46</v>
       </c>
       <c r="C151">
         <f t="shared" si="4"/>
@@ -5470,7 +5466,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>53</v>
+        <v>409</v>
       </c>
       <c r="C152">
         <f t="shared" si="4"/>
@@ -5479,7 +5475,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>340</v>
+        <v>53</v>
       </c>
       <c r="C153">
         <f t="shared" si="4"/>
@@ -5488,7 +5484,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>425</v>
+        <v>340</v>
       </c>
       <c r="C154">
         <f t="shared" si="4"/>
@@ -5497,7 +5493,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="C155">
         <f t="shared" si="4"/>
@@ -5506,7 +5502,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>506</v>
+        <v>380</v>
       </c>
       <c r="C156">
         <f t="shared" si="4"/>
@@ -5515,7 +5511,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>589</v>
+        <v>506</v>
       </c>
       <c r="C157">
         <f t="shared" si="4"/>
@@ -5524,7 +5520,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="C158">
         <f t="shared" si="4"/>
@@ -5533,7 +5529,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>194</v>
+        <v>576</v>
       </c>
       <c r="C159">
         <f t="shared" si="4"/>
@@ -5542,7 +5538,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="C160">
         <f t="shared" si="4"/>
@@ -5551,7 +5547,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>322</v>
+        <v>233</v>
       </c>
       <c r="C161">
         <f t="shared" si="4"/>
@@ -5560,7 +5556,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>135</v>
+        <v>322</v>
       </c>
       <c r="C162">
         <f t="shared" si="4"/>
@@ -5569,7 +5565,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C163">
         <f t="shared" si="4"/>
@@ -5578,7 +5574,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>394</v>
+        <v>153</v>
       </c>
       <c r="C164">
         <f t="shared" si="4"/>
@@ -5587,7 +5583,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>115</v>
+        <v>394</v>
       </c>
       <c r="C165">
         <f t="shared" si="4"/>
@@ -5596,7 +5592,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="C166">
         <f t="shared" si="4"/>
@@ -5605,7 +5601,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="C167">
         <f t="shared" si="4"/>
@@ -5614,7 +5610,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C168">
         <f t="shared" si="4"/>
@@ -5623,7 +5619,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="C169">
         <f t="shared" si="4"/>
@@ -5632,20 +5628,16 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>328</v>
+        <v>47</v>
       </c>
       <c r="C170">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" t="str">
-        <f>REPLACE(B171,1,4,"")</f>
-        <v>Central Bank Of Iran</v>
-      </c>
-      <c r="B171" t="s">
-        <v>581</v>
+      <c r="A171" t="s">
+        <v>328</v>
       </c>
       <c r="C171">
         <f t="shared" si="4"/>
@@ -5655,10 +5647,10 @@
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
         <f>REPLACE(B172,1,4,"")</f>
-        <v>Chase Manhattan Bank</v>
+        <v>Central Bank Of Iran</v>
       </c>
       <c r="B172" t="s">
-        <v>147</v>
+        <v>581</v>
       </c>
       <c r="C172">
         <f t="shared" si="4"/>
@@ -5666,8 +5658,12 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>283</v>
+      <c r="A173" t="str">
+        <f>REPLACE(B173,1,4,"")</f>
+        <v>Chase Manhattan Bank</v>
+      </c>
+      <c r="B173" t="s">
+        <v>147</v>
       </c>
       <c r="C173">
         <f t="shared" si="4"/>
@@ -5676,7 +5672,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>421</v>
+        <v>283</v>
       </c>
       <c r="C174">
         <f t="shared" si="4"/>
@@ -5685,7 +5681,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>189</v>
+        <v>421</v>
       </c>
       <c r="C175">
         <f t="shared" si="4"/>
@@ -5694,7 +5690,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>433</v>
+        <v>189</v>
       </c>
       <c r="C176">
         <f t="shared" si="4"/>
@@ -5703,10 +5699,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>555</v>
-      </c>
-      <c r="B177" t="s">
-        <v>552</v>
+        <v>433</v>
       </c>
       <c r="C177">
         <f t="shared" si="4"/>
@@ -5715,7 +5708,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>374</v>
+        <v>555</v>
+      </c>
+      <c r="B178" t="s">
+        <v>552</v>
       </c>
       <c r="C178">
         <f t="shared" si="4"/>
@@ -5724,7 +5720,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>522</v>
+        <v>374</v>
       </c>
       <c r="C179">
         <f t="shared" si="4"/>
@@ -5733,7 +5729,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>9</v>
+        <v>522</v>
       </c>
       <c r="C180">
         <f t="shared" si="4"/>
@@ -5742,7 +5738,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>396</v>
+        <v>9</v>
       </c>
       <c r="C181">
         <f t="shared" si="4"/>
@@ -5751,7 +5747,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>306</v>
+        <v>396</v>
       </c>
       <c r="C182">
         <f t="shared" si="4"/>
@@ -5760,7 +5756,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>543</v>
+        <v>306</v>
       </c>
       <c r="C183">
         <f t="shared" si="4"/>
@@ -5769,7 +5765,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>240</v>
+        <v>543</v>
       </c>
       <c r="C184">
         <f t="shared" si="4"/>
@@ -5778,7 +5774,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>352</v>
+        <v>240</v>
       </c>
       <c r="C185">
         <f t="shared" si="4"/>
@@ -5787,7 +5783,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>243</v>
+        <v>352</v>
       </c>
       <c r="C186">
         <f t="shared" si="4"/>
@@ -5796,7 +5792,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C187">
         <f t="shared" si="4"/>
@@ -5805,7 +5801,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="C188">
         <f t="shared" si="4"/>
@@ -5814,7 +5810,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>574</v>
+        <v>176</v>
       </c>
       <c r="C189">
         <f t="shared" si="4"/>
@@ -5823,7 +5819,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>70</v>
+        <v>574</v>
       </c>
       <c r="C190">
         <f t="shared" si="4"/>
@@ -5832,7 +5828,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="C191">
         <f t="shared" si="4"/>
@@ -5841,7 +5837,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="C192">
         <f t="shared" si="4"/>
@@ -5850,7 +5846,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>334</v>
+        <v>430</v>
       </c>
       <c r="C193">
         <f t="shared" si="4"/>
@@ -5859,7 +5855,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>143</v>
+        <v>334</v>
       </c>
       <c r="C194">
         <f t="shared" si="4"/>
@@ -5868,7 +5864,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="C195">
         <f t="shared" si="4"/>
@@ -5877,7 +5873,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="C196">
         <f t="shared" si="4"/>
@@ -5886,7 +5882,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C197">
         <f t="shared" si="4"/>
@@ -5895,7 +5891,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>360</v>
+        <v>62</v>
       </c>
       <c r="C198">
         <f t="shared" si="4"/>
@@ -5904,7 +5900,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>168</v>
+        <v>360</v>
       </c>
       <c r="C199">
         <f t="shared" si="4"/>
@@ -5913,7 +5909,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>299</v>
+        <v>168</v>
       </c>
       <c r="C200">
         <f t="shared" si="4"/>
@@ -5922,29 +5918,25 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>517</v>
+        <v>299</v>
       </c>
       <c r="C201">
-        <f t="shared" ref="C201:C263" si="5">LEN(A201)</f>
-        <v>21</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>517</v>
+      </c>
+      <c r="C202">
+        <f t="shared" ref="C202:C264" si="5">LEN(A202)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
         <v>564</v>
-      </c>
-      <c r="C202">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" t="str">
-        <f>REPLACE(B203,1,4,"")</f>
-        <v>Brookings Institution</v>
-      </c>
-      <c r="B203" t="s">
-        <v>22</v>
       </c>
       <c r="C203">
         <f t="shared" si="5"/>
@@ -5952,8 +5944,12 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>469</v>
+      <c r="A204" t="str">
+        <f>REPLACE(B204,1,4,"")</f>
+        <v>Brookings Institution</v>
+      </c>
+      <c r="B204" t="s">
+        <v>22</v>
       </c>
       <c r="C204">
         <f t="shared" si="5"/>
@@ -5962,7 +5958,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>390</v>
+        <v>469</v>
       </c>
       <c r="C205">
         <f t="shared" si="5"/>
@@ -5971,7 +5967,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>230</v>
+        <v>390</v>
       </c>
       <c r="C206">
         <f t="shared" si="5"/>
@@ -5980,7 +5976,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="C207">
         <f t="shared" si="5"/>
@@ -5989,7 +5985,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>172</v>
+        <v>270</v>
       </c>
       <c r="C208">
         <f t="shared" si="5"/>
@@ -5998,7 +5994,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>561</v>
+        <v>172</v>
       </c>
       <c r="C209">
         <f t="shared" si="5"/>
@@ -6007,7 +6003,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>35</v>
+        <v>561</v>
       </c>
       <c r="C210">
         <f t="shared" si="5"/>
@@ -6016,7 +6012,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C211">
         <f t="shared" si="5"/>
@@ -6025,7 +6021,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>451</v>
+        <v>3</v>
       </c>
       <c r="C212">
         <f t="shared" si="5"/>
@@ -6034,7 +6030,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="C213">
         <f t="shared" si="5"/>
@@ -6043,7 +6039,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>309</v>
+        <v>403</v>
       </c>
       <c r="C214">
         <f t="shared" si="5"/>
@@ -6052,7 +6048,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>412</v>
+        <v>309</v>
       </c>
       <c r="C215">
         <f t="shared" si="5"/>
@@ -6061,7 +6057,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C216">
         <f t="shared" si="5"/>
@@ -6070,7 +6066,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>339</v>
+        <v>411</v>
       </c>
       <c r="C217">
         <f t="shared" si="5"/>
@@ -6079,7 +6075,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>218</v>
+        <v>339</v>
       </c>
       <c r="C218">
         <f t="shared" si="5"/>
@@ -6088,7 +6084,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="C219">
         <f t="shared" si="5"/>
@@ -6097,7 +6093,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C220">
         <f t="shared" si="5"/>
@@ -6106,7 +6102,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="C221">
         <f t="shared" si="5"/>
@@ -6115,7 +6111,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C222">
         <f t="shared" si="5"/>
@@ -6124,7 +6120,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>418</v>
+        <v>30</v>
       </c>
       <c r="C223">
         <f t="shared" si="5"/>
@@ -6133,7 +6129,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="C224">
         <f t="shared" si="5"/>
@@ -6142,7 +6138,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>500</v>
+        <v>17</v>
       </c>
       <c r="C225">
         <f t="shared" si="5"/>
@@ -6151,7 +6147,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>68</v>
+        <v>500</v>
       </c>
       <c r="C226">
         <f t="shared" si="5"/>
@@ -6160,7 +6156,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C227">
         <f t="shared" si="5"/>
@@ -6169,7 +6165,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C228">
         <f t="shared" si="5"/>
@@ -6178,7 +6174,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="C229">
         <f t="shared" si="5"/>
@@ -6187,7 +6183,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>580</v>
+        <v>217</v>
       </c>
       <c r="C230">
         <f t="shared" si="5"/>
@@ -6196,7 +6192,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="C231">
         <f t="shared" si="5"/>
@@ -6205,7 +6201,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>191</v>
+        <v>563</v>
       </c>
       <c r="C232">
         <f t="shared" si="5"/>
@@ -6214,7 +6210,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>539</v>
+        <v>191</v>
       </c>
       <c r="C233">
         <f t="shared" si="5"/>
@@ -6223,7 +6219,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>175</v>
+        <v>539</v>
       </c>
       <c r="C234">
         <f t="shared" si="5"/>
@@ -6232,7 +6228,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c r="C235">
         <f t="shared" si="5"/>
@@ -6241,7 +6237,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C236">
         <f t="shared" si="5"/>
@@ -6250,7 +6246,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>516</v>
+        <v>303</v>
       </c>
       <c r="C237">
         <f t="shared" si="5"/>
@@ -6259,7 +6255,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>348</v>
+        <v>516</v>
       </c>
       <c r="C238">
         <f t="shared" si="5"/>
@@ -6268,7 +6264,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>55</v>
+        <v>348</v>
       </c>
       <c r="C239">
         <f t="shared" si="5"/>
@@ -6277,7 +6273,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="C240">
         <f t="shared" si="5"/>
@@ -6286,7 +6282,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>317</v>
+        <v>193</v>
       </c>
       <c r="C241">
         <f t="shared" si="5"/>
@@ -6295,7 +6291,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>157</v>
+        <v>317</v>
       </c>
       <c r="C242">
         <f t="shared" si="5"/>
@@ -6304,7 +6300,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>612</v>
+        <v>157</v>
       </c>
       <c r="C243">
         <f t="shared" si="5"/>
@@ -6313,16 +6309,16 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>401</v>
+        <v>612</v>
       </c>
       <c r="C244">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>337</v>
+        <v>401</v>
       </c>
       <c r="C245">
         <f t="shared" si="5"/>
@@ -6331,7 +6327,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>94</v>
+        <v>337</v>
       </c>
       <c r="C246">
         <f t="shared" si="5"/>
@@ -6340,7 +6336,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>556</v>
+        <v>94</v>
       </c>
       <c r="C247">
         <f t="shared" si="5"/>
@@ -6349,7 +6345,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>445</v>
+        <v>556</v>
       </c>
       <c r="C248">
         <f t="shared" si="5"/>
@@ -6358,7 +6354,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>325</v>
+        <v>445</v>
       </c>
       <c r="C249">
         <f t="shared" si="5"/>
@@ -6367,7 +6363,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C250">
         <f t="shared" si="5"/>
@@ -6376,7 +6372,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="C251">
         <f t="shared" si="5"/>
@@ -6385,7 +6381,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C252">
         <f t="shared" si="5"/>
@@ -6394,7 +6390,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>8</v>
+        <v>302</v>
       </c>
       <c r="C253">
         <f t="shared" si="5"/>
@@ -6403,7 +6399,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>569</v>
+        <v>8</v>
       </c>
       <c r="C254">
         <f t="shared" si="5"/>
@@ -6412,7 +6408,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>50</v>
+        <v>569</v>
       </c>
       <c r="C255">
         <f t="shared" si="5"/>
@@ -6421,7 +6417,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="C256">
         <f t="shared" si="5"/>
@@ -6430,7 +6426,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>544</v>
+        <v>272</v>
       </c>
       <c r="C257">
         <f t="shared" si="5"/>
@@ -6439,7 +6435,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>24</v>
+        <v>544</v>
       </c>
       <c r="C258">
         <f t="shared" si="5"/>
@@ -6448,7 +6444,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>244</v>
+        <v>24</v>
       </c>
       <c r="C259">
         <f t="shared" si="5"/>
@@ -6457,7 +6453,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>434</v>
+        <v>244</v>
       </c>
       <c r="C260">
         <f t="shared" si="5"/>
@@ -6466,7 +6462,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>499</v>
+        <v>434</v>
       </c>
       <c r="C261">
         <f t="shared" si="5"/>
@@ -6475,7 +6471,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>14</v>
+        <v>499</v>
       </c>
       <c r="C262">
         <f t="shared" si="5"/>
@@ -6484,7 +6480,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>359</v>
+        <v>14</v>
       </c>
       <c r="C263">
         <f t="shared" si="5"/>
@@ -6493,25 +6489,25 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C264">
-        <f t="shared" ref="C264:C327" si="6">LEN(A264)</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="C265">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C265:C328" si="6">LEN(A265)</f>
         <v>22</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>385</v>
+        <v>74</v>
       </c>
       <c r="C266">
         <f t="shared" si="6"/>
@@ -6520,7 +6516,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="C267">
         <f t="shared" si="6"/>
@@ -6529,7 +6525,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1</v>
+        <v>428</v>
       </c>
       <c r="C268">
         <f t="shared" si="6"/>
@@ -6538,7 +6534,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>443</v>
+        <v>1</v>
       </c>
       <c r="C269">
         <f t="shared" si="6"/>
@@ -6547,7 +6543,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>163</v>
+        <v>443</v>
       </c>
       <c r="C270">
         <f t="shared" si="6"/>
@@ -6556,16 +6552,16 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>375</v>
+        <v>163</v>
       </c>
       <c r="C271">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="C272">
         <f t="shared" si="6"/>
@@ -6574,7 +6570,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>104</v>
+        <v>292</v>
       </c>
       <c r="C273">
         <f t="shared" si="6"/>
@@ -6583,7 +6579,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>219</v>
+        <v>104</v>
       </c>
       <c r="C274">
         <f t="shared" si="6"/>
@@ -6592,7 +6588,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>389</v>
+        <v>219</v>
       </c>
       <c r="C275">
         <f t="shared" si="6"/>
@@ -6601,7 +6597,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>196</v>
+        <v>389</v>
       </c>
       <c r="C276">
         <f t="shared" si="6"/>
@@ -6610,7 +6606,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>460</v>
+        <v>196</v>
       </c>
       <c r="C277">
         <f t="shared" si="6"/>
@@ -6619,7 +6615,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>215</v>
+        <v>460</v>
       </c>
       <c r="C278">
         <f t="shared" si="6"/>
@@ -6628,7 +6624,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="C279">
         <f t="shared" si="6"/>
@@ -6637,7 +6633,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="C280">
         <f t="shared" si="6"/>
@@ -6646,7 +6642,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>108</v>
+        <v>417</v>
       </c>
       <c r="C281">
         <f t="shared" si="6"/>
@@ -6655,7 +6651,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="C282">
         <f t="shared" si="6"/>
@@ -6664,7 +6660,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>415</v>
+        <v>232</v>
       </c>
       <c r="C283">
         <f t="shared" si="6"/>
@@ -6673,7 +6669,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="C284">
         <f t="shared" si="6"/>
@@ -6682,7 +6678,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>64</v>
+        <v>361</v>
       </c>
       <c r="C285">
         <f t="shared" si="6"/>
@@ -6691,7 +6687,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>265</v>
+        <v>64</v>
       </c>
       <c r="C286">
         <f t="shared" si="6"/>
@@ -6700,7 +6696,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="C287">
         <f t="shared" si="6"/>
@@ -6709,7 +6705,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="C288">
         <f t="shared" si="6"/>
@@ -6718,7 +6714,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>354</v>
+        <v>245</v>
       </c>
       <c r="C289">
         <f t="shared" si="6"/>
@@ -6727,7 +6723,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>136</v>
+        <v>354</v>
       </c>
       <c r="C290">
         <f t="shared" si="6"/>
@@ -6736,7 +6732,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="C291">
         <f t="shared" si="6"/>
@@ -6745,7 +6741,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C292">
         <f t="shared" si="6"/>
@@ -6754,7 +6750,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="C293">
         <f t="shared" si="6"/>
@@ -6763,7 +6759,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>590</v>
+        <v>123</v>
       </c>
       <c r="C294">
         <f t="shared" si="6"/>
@@ -6772,7 +6768,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>481</v>
+        <v>590</v>
       </c>
       <c r="C295">
         <f t="shared" si="6"/>
@@ -6781,7 +6777,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>301</v>
+        <v>481</v>
       </c>
       <c r="C296">
         <f t="shared" si="6"/>
@@ -6790,7 +6786,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="C297">
         <f t="shared" si="6"/>
@@ -6799,7 +6795,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="C298">
         <f t="shared" si="6"/>
@@ -6808,16 +6804,16 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>483</v>
+        <v>77</v>
       </c>
       <c r="C299">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>381</v>
+        <v>483</v>
       </c>
       <c r="C300">
         <f t="shared" si="6"/>
@@ -6826,7 +6822,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>435</v>
+        <v>381</v>
       </c>
       <c r="C301">
         <f t="shared" si="6"/>
@@ -6835,7 +6831,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C302">
         <f t="shared" si="6"/>
@@ -6844,7 +6840,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>474</v>
+        <v>424</v>
       </c>
       <c r="C303">
         <f t="shared" si="6"/>
@@ -6853,7 +6849,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>166</v>
+        <v>474</v>
       </c>
       <c r="C304">
         <f t="shared" si="6"/>
@@ -6862,7 +6858,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>470</v>
+        <v>166</v>
       </c>
       <c r="C305">
         <f t="shared" si="6"/>
@@ -6871,7 +6867,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>89</v>
+        <v>470</v>
       </c>
       <c r="C306">
         <f t="shared" si="6"/>
@@ -6880,7 +6876,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C307">
         <f t="shared" si="6"/>
@@ -6889,7 +6885,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="C308">
         <f t="shared" si="6"/>
@@ -6898,7 +6894,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>442</v>
+        <v>216</v>
       </c>
       <c r="C309">
         <f t="shared" si="6"/>
@@ -6907,7 +6903,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>350</v>
+        <v>442</v>
       </c>
       <c r="C310">
         <f t="shared" si="6"/>
@@ -6916,7 +6912,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>525</v>
+        <v>350</v>
       </c>
       <c r="C311">
         <f t="shared" si="6"/>
@@ -6925,7 +6921,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>247</v>
+        <v>525</v>
       </c>
       <c r="C312">
         <f t="shared" si="6"/>
@@ -6934,7 +6930,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>496</v>
+        <v>247</v>
       </c>
       <c r="C313">
         <f t="shared" si="6"/>
@@ -6943,7 +6939,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>407</v>
+        <v>496</v>
       </c>
       <c r="C314">
         <f t="shared" si="6"/>
@@ -6952,7 +6948,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>336</v>
+        <v>407</v>
       </c>
       <c r="C315">
         <f t="shared" si="6"/>
@@ -6961,7 +6957,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>212</v>
+        <v>336</v>
       </c>
       <c r="C316">
         <f t="shared" si="6"/>
@@ -6970,7 +6966,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="C317">
         <f t="shared" si="6"/>
@@ -6979,7 +6975,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="C318">
         <f t="shared" si="6"/>
@@ -6988,7 +6984,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="C319">
         <f t="shared" si="6"/>
@@ -6997,7 +6993,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>512</v>
+        <v>69</v>
       </c>
       <c r="C320">
         <f t="shared" si="6"/>
@@ -7006,7 +7002,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>110</v>
+        <v>512</v>
       </c>
       <c r="C321">
         <f t="shared" si="6"/>
@@ -7015,7 +7011,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>587</v>
+        <v>110</v>
       </c>
       <c r="C322">
         <f t="shared" si="6"/>
@@ -7024,7 +7020,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>226</v>
+        <v>587</v>
       </c>
       <c r="C323">
         <f t="shared" si="6"/>
@@ -7033,7 +7029,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="C324">
         <f t="shared" si="6"/>
@@ -7042,7 +7038,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>326</v>
+        <v>137</v>
       </c>
       <c r="C325">
         <f t="shared" si="6"/>
@@ -7051,7 +7047,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>144</v>
+        <v>326</v>
       </c>
       <c r="C326">
         <f t="shared" si="6"/>
@@ -7060,7 +7056,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>227</v>
+        <v>144</v>
       </c>
       <c r="C327">
         <f t="shared" si="6"/>
@@ -7069,25 +7065,25 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="C328">
-        <f t="shared" ref="C328:C388" si="7">LEN(A328)</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="C329">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="C329:C389" si="7">LEN(A329)</f>
         <v>24</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>577</v>
+        <v>112</v>
       </c>
       <c r="C330">
         <f t="shared" si="7"/>
@@ -7096,16 +7092,16 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>295</v>
+        <v>577</v>
       </c>
       <c r="C331">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C332">
         <f t="shared" si="7"/>
@@ -7114,7 +7110,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C333">
         <f t="shared" si="7"/>
@@ -7123,7 +7119,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>140</v>
+        <v>271</v>
       </c>
       <c r="C334">
         <f t="shared" si="7"/>
@@ -7132,7 +7128,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>276</v>
+        <v>140</v>
       </c>
       <c r="C335">
         <f t="shared" si="7"/>
@@ -7141,7 +7137,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C336">
         <f t="shared" si="7"/>
@@ -7150,7 +7146,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>456</v>
+        <v>275</v>
       </c>
       <c r="C337">
         <f t="shared" si="7"/>
@@ -7159,7 +7155,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>370</v>
+        <v>456</v>
       </c>
       <c r="C338">
         <f t="shared" si="7"/>
@@ -7168,7 +7164,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="C339">
         <f t="shared" si="7"/>
@@ -7177,7 +7173,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>100</v>
+        <v>355</v>
       </c>
       <c r="C340">
         <f t="shared" si="7"/>
@@ -7186,7 +7182,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>455</v>
+        <v>100</v>
       </c>
       <c r="C341">
         <f t="shared" si="7"/>
@@ -7195,7 +7191,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>298</v>
+        <v>455</v>
       </c>
       <c r="C342">
         <f t="shared" si="7"/>
@@ -7204,7 +7200,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>118</v>
+        <v>298</v>
       </c>
       <c r="C343">
         <f t="shared" si="7"/>
@@ -7213,7 +7209,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>304</v>
+        <v>118</v>
       </c>
       <c r="C344">
         <f t="shared" si="7"/>
@@ -7222,7 +7218,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>575</v>
+        <v>304</v>
       </c>
       <c r="C345">
         <f t="shared" si="7"/>
@@ -7231,10 +7227,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>579</v>
-      </c>
-      <c r="B346" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C346">
         <f t="shared" si="7"/>
@@ -7243,7 +7236,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>586</v>
+        <v>579</v>
+      </c>
+      <c r="B347" t="s">
+        <v>578</v>
       </c>
       <c r="C347">
         <f t="shared" si="7"/>
@@ -7252,7 +7248,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>405</v>
+        <v>586</v>
       </c>
       <c r="C348">
         <f t="shared" si="7"/>
@@ -7261,7 +7257,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>548</v>
+        <v>405</v>
       </c>
       <c r="C349">
         <f t="shared" si="7"/>
@@ -7270,16 +7266,16 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>378</v>
+        <v>548</v>
       </c>
       <c r="C350">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>214</v>
+        <v>378</v>
       </c>
       <c r="C351">
         <f t="shared" si="7"/>
@@ -7288,7 +7284,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>323</v>
+        <v>214</v>
       </c>
       <c r="C352">
         <f t="shared" si="7"/>
@@ -7297,7 +7293,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>472</v>
+        <v>323</v>
       </c>
       <c r="C353">
         <f t="shared" si="7"/>
@@ -7306,7 +7302,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="C354">
         <f t="shared" si="7"/>
@@ -7315,7 +7311,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C355">
         <f t="shared" si="7"/>
@@ -7324,7 +7320,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>78</v>
+        <v>509</v>
       </c>
       <c r="C356">
         <f t="shared" si="7"/>
@@ -7333,7 +7329,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="C357">
         <f t="shared" si="7"/>
@@ -7342,7 +7338,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="C358">
         <f t="shared" si="7"/>
@@ -7351,7 +7347,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>349</v>
+        <v>229</v>
       </c>
       <c r="C359">
         <f t="shared" si="7"/>
@@ -7360,7 +7356,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C360">
         <f t="shared" si="7"/>
@@ -7369,7 +7365,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>111</v>
+        <v>357</v>
       </c>
       <c r="C361">
         <f t="shared" si="7"/>
@@ -7378,7 +7374,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="C362">
         <f t="shared" si="7"/>
@@ -7387,7 +7383,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="C363">
         <f t="shared" si="7"/>
@@ -7396,7 +7392,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="C364">
         <f t="shared" si="7"/>
@@ -7405,7 +7401,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="C365">
         <f t="shared" si="7"/>
@@ -7414,7 +7410,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="C366">
         <f t="shared" si="7"/>
@@ -7423,7 +7419,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="C367">
         <f t="shared" si="7"/>
@@ -7432,7 +7428,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>311</v>
+        <v>177</v>
       </c>
       <c r="C368">
         <f t="shared" si="7"/>
@@ -7441,7 +7437,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>171</v>
+        <v>311</v>
       </c>
       <c r="C369">
         <f t="shared" si="7"/>
@@ -7450,16 +7446,16 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>495</v>
+        <v>171</v>
       </c>
       <c r="C370">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="C371">
         <f t="shared" si="7"/>
@@ -7468,7 +7464,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>278</v>
+        <v>473</v>
       </c>
       <c r="C372">
         <f t="shared" si="7"/>
@@ -7477,7 +7473,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>528</v>
+        <v>278</v>
       </c>
       <c r="C373">
         <f t="shared" si="7"/>
@@ -7486,7 +7482,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>92</v>
+        <v>528</v>
       </c>
       <c r="C374">
         <f t="shared" si="7"/>
@@ -7495,7 +7491,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>346</v>
+        <v>92</v>
       </c>
       <c r="C375">
         <f t="shared" si="7"/>
@@ -7504,7 +7500,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>228</v>
+        <v>346</v>
       </c>
       <c r="C376">
         <f t="shared" si="7"/>
@@ -7513,7 +7509,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="C377">
         <f t="shared" si="7"/>
@@ -7522,7 +7518,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>406</v>
+        <v>251</v>
       </c>
       <c r="C378">
         <f t="shared" si="7"/>
@@ -7531,7 +7527,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C379">
         <f t="shared" si="7"/>
@@ -7540,7 +7536,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="C380">
         <f t="shared" si="7"/>
@@ -7549,7 +7545,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>316</v>
+        <v>20</v>
       </c>
       <c r="C381">
         <f t="shared" si="7"/>
@@ -7558,7 +7554,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>109</v>
+        <v>316</v>
       </c>
       <c r="C382">
         <f t="shared" si="7"/>
@@ -7567,7 +7563,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="C383">
         <f t="shared" si="7"/>
@@ -7576,7 +7572,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="C384">
         <f t="shared" si="7"/>
@@ -7585,7 +7581,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="C385">
         <f t="shared" si="7"/>
@@ -7594,7 +7590,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>134</v>
+        <v>314</v>
       </c>
       <c r="C386">
         <f t="shared" si="7"/>
@@ -7603,7 +7599,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="C387">
         <f t="shared" si="7"/>
@@ -7612,7 +7608,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="C388">
         <f t="shared" si="7"/>
@@ -7621,25 +7617,25 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>423</v>
+        <v>160</v>
       </c>
       <c r="C389">
-        <f t="shared" ref="C389:C447" si="8">LEN(A389)</f>
-        <v>28</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>250</v>
+        <v>423</v>
       </c>
       <c r="C390">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="C390:C448" si="8">LEN(A390)</f>
         <v>28</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>404</v>
+        <v>250</v>
       </c>
       <c r="C391">
         <f t="shared" si="8"/>
@@ -7648,7 +7644,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>107</v>
+        <v>404</v>
       </c>
       <c r="C392">
         <f t="shared" si="8"/>
@@ -7657,7 +7653,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>395</v>
+        <v>107</v>
       </c>
       <c r="C393">
         <f t="shared" si="8"/>
@@ -7666,7 +7662,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>63</v>
+        <v>395</v>
       </c>
       <c r="C394">
         <f t="shared" si="8"/>
@@ -7675,7 +7671,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>367</v>
+        <v>63</v>
       </c>
       <c r="C395">
         <f t="shared" si="8"/>
@@ -7684,7 +7680,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>478</v>
+        <v>367</v>
       </c>
       <c r="C396">
         <f t="shared" si="8"/>
@@ -7693,7 +7689,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>410</v>
+        <v>478</v>
       </c>
       <c r="C397">
         <f t="shared" si="8"/>
@@ -7702,7 +7698,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="C398">
         <f t="shared" si="8"/>
@@ -7711,7 +7707,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="C399">
         <f t="shared" si="8"/>
@@ -7720,7 +7716,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>529</v>
+        <v>82</v>
       </c>
       <c r="C400">
         <f t="shared" si="8"/>
@@ -7728,12 +7724,8 @@
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A401" t="str">
-        <f>REPLACE(B401,1,4,"")</f>
-        <v>New York Citt-Rand Institute</v>
-      </c>
-      <c r="B401" t="s">
-        <v>220</v>
+      <c r="A401" t="s">
+        <v>529</v>
       </c>
       <c r="C401">
         <f t="shared" si="8"/>
@@ -7741,8 +7733,12 @@
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
-        <v>173</v>
+      <c r="A402" t="str">
+        <f>REPLACE(B402,1,4,"")</f>
+        <v>New York Citt-Rand Institute</v>
+      </c>
+      <c r="B402" t="s">
+        <v>220</v>
       </c>
       <c r="C402">
         <f t="shared" si="8"/>
@@ -7751,7 +7747,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C403">
         <f t="shared" si="8"/>
@@ -7760,7 +7756,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>235</v>
+        <v>146</v>
       </c>
       <c r="C404">
         <f t="shared" si="8"/>
@@ -7769,7 +7765,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>471</v>
+        <v>235</v>
       </c>
       <c r="C405">
         <f t="shared" si="8"/>
@@ -7778,7 +7774,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="C406">
         <f t="shared" si="8"/>
@@ -7786,12 +7782,8 @@
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A407" t="str">
-        <f>REPLACE(B407,1,4,"")</f>
-        <v>Population Council, New York</v>
-      </c>
-      <c r="B407" t="s">
-        <v>566</v>
+      <c r="A407" t="s">
+        <v>431</v>
       </c>
       <c r="C407">
         <f t="shared" si="8"/>
@@ -7799,8 +7791,12 @@
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
-        <v>221</v>
+      <c r="A408" t="str">
+        <f>REPLACE(B408,1,4,"")</f>
+        <v>Population Council, New York</v>
+      </c>
+      <c r="B408" t="s">
+        <v>566</v>
       </c>
       <c r="C408">
         <f t="shared" si="8"/>
@@ -7809,7 +7805,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="C409">
         <f t="shared" si="8"/>
@@ -7818,7 +7814,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>441</v>
+        <v>195</v>
       </c>
       <c r="C410">
         <f t="shared" si="8"/>
@@ -7827,7 +7823,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>133</v>
+        <v>441</v>
       </c>
       <c r="C411">
         <f t="shared" si="8"/>
@@ -7836,7 +7832,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="C412">
         <f t="shared" si="8"/>
@@ -7845,7 +7841,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="C413">
         <f t="shared" si="8"/>
@@ -7854,7 +7850,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>538</v>
+        <v>151</v>
       </c>
       <c r="C414">
         <f t="shared" si="8"/>
@@ -7863,7 +7859,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="C415">
         <f t="shared" si="8"/>
@@ -7872,16 +7868,16 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>96</v>
+        <v>510</v>
       </c>
       <c r="C416">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>254</v>
+        <v>96</v>
       </c>
       <c r="C417">
         <f t="shared" si="8"/>
@@ -7890,7 +7886,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>468</v>
+        <v>254</v>
       </c>
       <c r="C418">
         <f t="shared" si="8"/>
@@ -7899,7 +7895,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>165</v>
+        <v>468</v>
       </c>
       <c r="C419">
         <f t="shared" si="8"/>
@@ -7908,7 +7904,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C420">
         <f t="shared" si="8"/>
@@ -7917,7 +7913,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>351</v>
+        <v>159</v>
       </c>
       <c r="C421">
         <f t="shared" si="8"/>
@@ -7926,7 +7922,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="C422">
         <f t="shared" si="8"/>
@@ -7935,7 +7931,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>366</v>
+        <v>501</v>
       </c>
       <c r="C423">
         <f t="shared" si="8"/>
@@ -7944,25 +7940,25 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>613</v>
+        <v>366</v>
       </c>
       <c r="C424">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>184</v>
+        <v>613</v>
       </c>
       <c r="C425">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="C426">
         <f t="shared" si="8"/>
@@ -7971,7 +7967,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="C427">
         <f t="shared" si="8"/>
@@ -7980,7 +7976,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>369</v>
+        <v>170</v>
       </c>
       <c r="C428">
         <f t="shared" si="8"/>
@@ -7989,7 +7985,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>156</v>
+        <v>369</v>
       </c>
       <c r="C429">
         <f t="shared" si="8"/>
@@ -7998,7 +7994,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>335</v>
+        <v>156</v>
       </c>
       <c r="C430">
         <f t="shared" si="8"/>
@@ -8007,7 +8003,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>458</v>
+        <v>335</v>
       </c>
       <c r="C431">
         <f t="shared" si="8"/>
@@ -8016,7 +8012,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>152</v>
+        <v>458</v>
       </c>
       <c r="C432">
         <f t="shared" si="8"/>
@@ -8025,7 +8021,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="C433">
         <f t="shared" si="8"/>
@@ -8034,7 +8030,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>487</v>
+        <v>199</v>
       </c>
       <c r="C434">
         <f t="shared" si="8"/>
@@ -8043,7 +8039,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>10</v>
+        <v>487</v>
       </c>
       <c r="C435">
         <f t="shared" si="8"/>
@@ -8052,16 +8048,16 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>463</v>
+        <v>10</v>
       </c>
       <c r="C436">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>288</v>
+        <v>463</v>
       </c>
       <c r="C437">
         <f t="shared" si="8"/>
@@ -8070,7 +8066,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>128</v>
+        <v>288</v>
       </c>
       <c r="C438">
         <f t="shared" si="8"/>
@@ -8079,7 +8075,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>344</v>
+        <v>128</v>
       </c>
       <c r="C439">
         <f t="shared" si="8"/>
@@ -8088,7 +8084,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>438</v>
+        <v>344</v>
       </c>
       <c r="C440">
         <f t="shared" si="8"/>
@@ -8097,7 +8093,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>114</v>
+        <v>438</v>
       </c>
       <c r="C441">
         <f t="shared" si="8"/>
@@ -8106,7 +8102,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="C442">
         <f t="shared" si="8"/>
@@ -8115,7 +8111,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>596</v>
+        <v>65</v>
       </c>
       <c r="C443">
         <f t="shared" si="8"/>
@@ -8124,7 +8120,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>492</v>
+        <v>596</v>
       </c>
       <c r="C444">
         <f t="shared" si="8"/>
@@ -8133,7 +8129,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>98</v>
+        <v>492</v>
       </c>
       <c r="C445">
         <f t="shared" si="8"/>
@@ -8142,7 +8138,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>567</v>
+        <v>98</v>
       </c>
       <c r="C446">
         <f t="shared" si="8"/>
@@ -8151,7 +8147,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>167</v>
+        <v>567</v>
       </c>
       <c r="C447">
         <f t="shared" si="8"/>
@@ -8160,34 +8156,34 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>332</v>
+        <v>167</v>
       </c>
       <c r="C448">
-        <f t="shared" ref="C448:C511" si="9">LEN(A448)</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
+        <v>332</v>
+      </c>
+      <c r="C449">
+        <f t="shared" ref="C449:C512" si="9">LEN(A449)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
         <v>259</v>
       </c>
-      <c r="C449">
+      <c r="C450">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A450" t="s">
-        <v>28</v>
-      </c>
-      <c r="C450">
-        <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-    </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>398</v>
+        <v>28</v>
       </c>
       <c r="C451">
         <f t="shared" si="9"/>
@@ -8196,7 +8192,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
       <c r="C452">
         <f t="shared" si="9"/>
@@ -8205,7 +8201,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="C453">
         <f t="shared" si="9"/>
@@ -8214,7 +8210,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>43</v>
+        <v>454</v>
       </c>
       <c r="C454">
         <f t="shared" si="9"/>
@@ -8223,7 +8219,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C455">
         <f t="shared" si="9"/>
@@ -8232,7 +8228,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>452</v>
+        <v>102</v>
       </c>
       <c r="C456">
         <f t="shared" si="9"/>
@@ -8241,7 +8237,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="C457">
         <f t="shared" si="9"/>
@@ -8250,7 +8246,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>486</v>
+        <v>427</v>
       </c>
       <c r="C458">
         <f t="shared" si="9"/>
@@ -8259,7 +8255,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>376</v>
+        <v>486</v>
       </c>
       <c r="C459">
         <f t="shared" si="9"/>
@@ -8268,7 +8264,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>291</v>
+        <v>376</v>
       </c>
       <c r="C460">
         <f t="shared" si="9"/>
@@ -8277,7 +8273,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>583</v>
+        <v>291</v>
       </c>
       <c r="C461">
         <f t="shared" si="9"/>
@@ -8286,7 +8282,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>279</v>
+        <v>583</v>
       </c>
       <c r="C462">
         <f t="shared" si="9"/>
@@ -8295,7 +8291,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="C463">
         <f t="shared" si="9"/>
@@ -8304,7 +8300,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>497</v>
+        <v>44</v>
       </c>
       <c r="C464">
         <f t="shared" si="9"/>
@@ -8313,7 +8309,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C465">
         <f t="shared" si="9"/>
@@ -8322,7 +8318,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>542</v>
+        <v>505</v>
       </c>
       <c r="C466">
         <f t="shared" si="9"/>
@@ -8331,7 +8327,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>125</v>
+        <v>542</v>
       </c>
       <c r="C467">
         <f t="shared" si="9"/>
@@ -8340,7 +8336,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>513</v>
+        <v>125</v>
       </c>
       <c r="C468">
         <f t="shared" si="9"/>
@@ -8349,16 +8345,16 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>457</v>
+        <v>513</v>
       </c>
       <c r="C469">
         <f t="shared" si="9"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>41</v>
+        <v>457</v>
       </c>
       <c r="C470">
         <f t="shared" si="9"/>
@@ -8367,7 +8363,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="C471">
         <f t="shared" si="9"/>
@@ -8376,7 +8372,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>447</v>
+        <v>91</v>
       </c>
       <c r="C472">
         <f t="shared" si="9"/>
@@ -8385,7 +8381,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="C473">
         <f t="shared" si="9"/>
@@ -8394,7 +8390,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="C474">
         <f t="shared" si="9"/>
@@ -8403,7 +8399,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>75</v>
+        <v>365</v>
       </c>
       <c r="C475">
         <f t="shared" si="9"/>
@@ -8412,7 +8408,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="C476">
         <f t="shared" si="9"/>
@@ -8421,7 +8417,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="C477">
         <f t="shared" si="9"/>
@@ -8430,7 +8426,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C478">
         <f t="shared" si="9"/>
@@ -8439,7 +8435,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>503</v>
+        <v>38</v>
       </c>
       <c r="C479">
         <f t="shared" si="9"/>
@@ -8448,7 +8444,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>393</v>
+        <v>503</v>
       </c>
       <c r="C480">
         <f t="shared" si="9"/>
@@ -8457,7 +8453,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="C481">
         <f t="shared" si="9"/>
@@ -8466,7 +8462,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="C482">
         <f t="shared" si="9"/>
@@ -8475,7 +8471,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C483">
         <f t="shared" si="9"/>
@@ -8484,7 +8480,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>319</v>
+        <v>388</v>
       </c>
       <c r="C484">
         <f t="shared" si="9"/>
@@ -8493,7 +8489,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="C485">
         <f t="shared" si="9"/>
@@ -8502,7 +8498,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>338</v>
+        <v>200</v>
       </c>
       <c r="C486">
         <f t="shared" si="9"/>
@@ -8511,7 +8507,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="C487">
         <f t="shared" si="9"/>
@@ -8520,7 +8516,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>600</v>
+        <v>315</v>
       </c>
       <c r="C488">
         <f t="shared" si="9"/>
@@ -8529,7 +8525,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>541</v>
+        <v>600</v>
       </c>
       <c r="C489">
         <f t="shared" si="9"/>
@@ -8538,7 +8534,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>238</v>
+        <v>541</v>
       </c>
       <c r="C490">
         <f t="shared" si="9"/>
@@ -8547,7 +8543,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>408</v>
+        <v>238</v>
       </c>
       <c r="C491">
         <f t="shared" si="9"/>
@@ -8556,7 +8552,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>489</v>
+        <v>408</v>
       </c>
       <c r="C492">
         <f t="shared" si="9"/>
@@ -8565,16 +8561,16 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="C493">
         <f t="shared" si="9"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>297</v>
+        <v>477</v>
       </c>
       <c r="C494">
         <f t="shared" si="9"/>
@@ -8583,7 +8579,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>546</v>
+        <v>297</v>
       </c>
       <c r="C495">
         <f t="shared" si="9"/>
@@ -8592,25 +8588,25 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>785</v>
+        <v>546</v>
       </c>
       <c r="C496">
         <f t="shared" si="9"/>
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>282</v>
+        <v>785</v>
       </c>
       <c r="C497">
         <f t="shared" si="9"/>
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>377</v>
+        <v>282</v>
       </c>
       <c r="C498">
         <f t="shared" si="9"/>
@@ -8619,7 +8615,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C499">
         <f t="shared" si="9"/>
@@ -8628,7 +8624,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>514</v>
+        <v>379</v>
       </c>
       <c r="C500">
         <f t="shared" si="9"/>
@@ -8636,12 +8632,8 @@
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A501" t="str">
-        <f>REPLACE(B501,1,4,"")</f>
-        <v>Federal Reserve Bank Of Cleveland</v>
-      </c>
-      <c r="B501" t="s">
-        <v>353</v>
+      <c r="A501" t="s">
+        <v>514</v>
       </c>
       <c r="C501">
         <f t="shared" si="9"/>
@@ -8649,8 +8641,12 @@
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A502" t="s">
-        <v>281</v>
+      <c r="A502" t="str">
+        <f>REPLACE(B502,1,4,"")</f>
+        <v>Federal Reserve Bank Of Cleveland</v>
+      </c>
+      <c r="B502" t="s">
+        <v>353</v>
       </c>
       <c r="C502">
         <f t="shared" si="9"/>
@@ -8659,7 +8655,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>526</v>
+        <v>281</v>
       </c>
       <c r="C503">
         <f t="shared" si="9"/>
@@ -8668,7 +8664,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>312</v>
+        <v>526</v>
       </c>
       <c r="C504">
         <f t="shared" si="9"/>
@@ -8677,7 +8673,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>426</v>
+        <v>312</v>
       </c>
       <c r="C505">
         <f t="shared" si="9"/>
@@ -8686,7 +8682,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C506">
         <f t="shared" si="9"/>
@@ -8695,7 +8691,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>204</v>
+        <v>419</v>
       </c>
       <c r="C507">
         <f t="shared" si="9"/>
@@ -8704,7 +8700,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="C508">
         <f t="shared" si="9"/>
@@ -8713,7 +8709,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="C509">
         <f t="shared" si="9"/>
@@ -8722,7 +8718,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>414</v>
+        <v>290</v>
       </c>
       <c r="C510">
         <f t="shared" si="9"/>
@@ -8731,7 +8727,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>130</v>
+        <v>414</v>
       </c>
       <c r="C511">
         <f t="shared" si="9"/>
@@ -8740,25 +8736,25 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="C512">
-        <f t="shared" ref="C512:C574" si="10">LEN(A512)</f>
-        <v>34</v>
+        <f t="shared" si="9"/>
+        <v>33</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>549</v>
+        <v>49</v>
       </c>
       <c r="C513">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="C513:C575" si="10">LEN(A513)</f>
         <v>34</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>119</v>
+        <v>549</v>
       </c>
       <c r="C514">
         <f t="shared" si="10"/>
@@ -8767,7 +8763,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>604</v>
+        <v>119</v>
       </c>
       <c r="C515">
         <f t="shared" si="10"/>
@@ -8776,7 +8772,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>241</v>
+        <v>604</v>
       </c>
       <c r="C516">
         <f t="shared" si="10"/>
@@ -8785,7 +8781,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>440</v>
+        <v>241</v>
       </c>
       <c r="C517">
         <f t="shared" si="10"/>
@@ -8794,7 +8790,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>181</v>
+        <v>440</v>
       </c>
       <c r="C518">
         <f t="shared" si="10"/>
@@ -8803,7 +8799,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C519">
         <f t="shared" si="10"/>
@@ -8812,7 +8808,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="C520">
         <f t="shared" si="10"/>
@@ -8821,7 +8817,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>532</v>
+        <v>246</v>
       </c>
       <c r="C521">
         <f t="shared" si="10"/>
@@ -8830,7 +8826,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>13</v>
+        <v>532</v>
       </c>
       <c r="C522">
         <f t="shared" si="10"/>
@@ -8839,7 +8835,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>372</v>
+        <v>13</v>
       </c>
       <c r="C523">
         <f t="shared" si="10"/>
@@ -8848,16 +8844,16 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
       <c r="C524">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C525">
         <f t="shared" si="10"/>
@@ -8866,7 +8862,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>585</v>
+        <v>310</v>
       </c>
       <c r="C526">
         <f t="shared" si="10"/>
@@ -8875,7 +8871,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>188</v>
+        <v>585</v>
       </c>
       <c r="C527">
         <f t="shared" si="10"/>
@@ -8884,16 +8880,16 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>397</v>
+        <v>188</v>
       </c>
       <c r="C528">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>51</v>
+        <v>397</v>
       </c>
       <c r="C529">
         <f t="shared" si="10"/>
@@ -8902,7 +8898,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>484</v>
+        <v>51</v>
       </c>
       <c r="C530">
         <f t="shared" si="10"/>
@@ -8911,7 +8907,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="C531">
         <f t="shared" si="10"/>
@@ -8920,7 +8916,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>518</v>
+        <v>461</v>
       </c>
       <c r="C532">
         <f t="shared" si="10"/>
@@ -8929,7 +8925,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>25</v>
+        <v>518</v>
       </c>
       <c r="C533">
         <f t="shared" si="10"/>
@@ -8938,7 +8934,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>329</v>
+        <v>25</v>
       </c>
       <c r="C534">
         <f t="shared" si="10"/>
@@ -8947,7 +8943,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>106</v>
+        <v>329</v>
       </c>
       <c r="C535">
         <f t="shared" si="10"/>
@@ -8955,12 +8951,8 @@
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A536" t="str">
-        <f>REPLACE(B536,1,4,"")</f>
-        <v>Trachtenberg School Of Public Policy</v>
-      </c>
-      <c r="B536" t="s">
-        <v>449</v>
+      <c r="A536" t="s">
+        <v>106</v>
       </c>
       <c r="C536">
         <f t="shared" si="10"/>
@@ -8968,8 +8960,12 @@
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A537" t="s">
-        <v>453</v>
+      <c r="A537" t="str">
+        <f>REPLACE(B537,1,4,"")</f>
+        <v>Trachtenberg School Of Public Policy</v>
+      </c>
+      <c r="B537" t="s">
+        <v>449</v>
       </c>
       <c r="C537">
         <f t="shared" si="10"/>
@@ -8978,7 +8974,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>139</v>
+        <v>453</v>
       </c>
       <c r="C538">
         <f t="shared" si="10"/>
@@ -8987,7 +8983,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>437</v>
+        <v>139</v>
       </c>
       <c r="C539">
         <f t="shared" si="10"/>
@@ -8996,7 +8992,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>324</v>
+        <v>437</v>
       </c>
       <c r="C540">
         <f t="shared" si="10"/>
@@ -9005,16 +9001,16 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>537</v>
+        <v>324</v>
       </c>
       <c r="C541">
         <f t="shared" si="10"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>84</v>
+        <v>537</v>
       </c>
       <c r="C542">
         <f t="shared" si="10"/>
@@ -9023,7 +9019,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>490</v>
+        <v>84</v>
       </c>
       <c r="C543">
         <f t="shared" si="10"/>
@@ -9032,7 +9028,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>103</v>
+        <v>490</v>
       </c>
       <c r="C544">
         <f t="shared" si="10"/>
@@ -9041,7 +9037,7 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>570</v>
+        <v>103</v>
       </c>
       <c r="C545">
         <f t="shared" si="10"/>
@@ -9050,7 +9046,7 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>72</v>
+        <v>570</v>
       </c>
       <c r="C546">
         <f t="shared" si="10"/>
@@ -9059,7 +9055,7 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="C547">
         <f t="shared" si="10"/>
@@ -9068,7 +9064,7 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="C548">
         <f t="shared" si="10"/>
@@ -9077,7 +9073,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>507</v>
+        <v>239</v>
       </c>
       <c r="C549">
         <f t="shared" si="10"/>
@@ -9086,7 +9082,7 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="C550">
         <f t="shared" si="10"/>
@@ -9095,7 +9091,7 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>32</v>
+        <v>523</v>
       </c>
       <c r="C551">
         <f t="shared" si="10"/>
@@ -9104,7 +9100,7 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C552">
         <f t="shared" si="10"/>
@@ -9113,16 +9109,16 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>464</v>
+        <v>11</v>
       </c>
       <c r="C553">
         <f t="shared" si="10"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
       <c r="C554">
         <f t="shared" si="10"/>
@@ -9131,7 +9127,7 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>459</v>
+        <v>504</v>
       </c>
       <c r="C555">
         <f t="shared" si="10"/>
@@ -9140,7 +9136,7 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="C556">
         <f t="shared" si="10"/>
@@ -9149,7 +9145,7 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="C557">
         <f t="shared" si="10"/>
@@ -9158,7 +9154,7 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="C558">
         <f t="shared" si="10"/>
@@ -9167,16 +9163,16 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>36</v>
+        <v>479</v>
       </c>
       <c r="C559">
         <f t="shared" si="10"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>480</v>
+        <v>36</v>
       </c>
       <c r="C560">
         <f t="shared" si="10"/>
@@ -9185,7 +9181,7 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>562</v>
+        <v>480</v>
       </c>
       <c r="C561">
         <f t="shared" si="10"/>
@@ -9194,7 +9190,7 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>599</v>
+        <v>562</v>
       </c>
       <c r="C562">
         <f t="shared" si="10"/>
@@ -9203,7 +9199,7 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>373</v>
+        <v>599</v>
       </c>
       <c r="C563">
         <f t="shared" si="10"/>
@@ -9212,16 +9208,16 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C564">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>40</v>
+        <v>382</v>
       </c>
       <c r="C565">
         <f t="shared" si="10"/>
@@ -9230,16 +9226,16 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>476</v>
+        <v>40</v>
       </c>
       <c r="C566">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>249</v>
+        <v>476</v>
       </c>
       <c r="C567">
         <f t="shared" si="10"/>
@@ -9248,7 +9244,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="C568">
         <f t="shared" si="10"/>
@@ -9257,7 +9253,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="C569">
         <f t="shared" si="10"/>
@@ -9266,7 +9262,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>493</v>
+        <v>86</v>
       </c>
       <c r="C570">
         <f t="shared" si="10"/>
@@ -9275,7 +9271,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>126</v>
+        <v>493</v>
       </c>
       <c r="C571">
         <f t="shared" si="10"/>
@@ -9284,19 +9280,19 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>559</v>
-      </c>
-      <c r="B572" t="s">
-        <v>560</v>
+        <v>126</v>
       </c>
       <c r="C572">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>465</v>
+        <v>559</v>
+      </c>
+      <c r="B573" t="s">
+        <v>560</v>
       </c>
       <c r="C573">
         <f t="shared" si="10"/>
@@ -9305,7 +9301,7 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>88</v>
+        <v>465</v>
       </c>
       <c r="C574">
         <f t="shared" si="10"/>
@@ -9314,34 +9310,34 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="C575">
-        <f t="shared" ref="C575:C601" si="11">LEN(A575)</f>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
+        <v>267</v>
+      </c>
+      <c r="C576">
+        <f t="shared" ref="C576:C602" si="11">LEN(A576)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
         <v>436</v>
       </c>
-      <c r="C576">
+      <c r="C577">
         <f t="shared" si="11"/>
         <v>42</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A577" t="s">
-        <v>343</v>
-      </c>
-      <c r="C577">
-        <f t="shared" si="11"/>
-        <v>43</v>
-      </c>
-    </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>225</v>
+        <v>343</v>
       </c>
       <c r="C578">
         <f t="shared" si="11"/>
@@ -9350,7 +9346,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="C579">
         <f t="shared" si="11"/>
@@ -9359,7 +9355,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>511</v>
+        <v>154</v>
       </c>
       <c r="C580">
         <f t="shared" si="11"/>
@@ -9368,7 +9364,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C581">
         <f t="shared" si="11"/>
@@ -9377,28 +9373,28 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>558</v>
-      </c>
-      <c r="B582" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="C582">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>429</v>
+        <v>558</v>
+      </c>
+      <c r="B583" t="s">
+        <v>557</v>
       </c>
       <c r="C583">
         <f t="shared" si="11"/>
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="C584">
         <f t="shared" si="11"/>
@@ -9407,16 +9403,16 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>149</v>
+        <v>383</v>
       </c>
       <c r="C585">
         <f t="shared" si="11"/>
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>491</v>
+        <v>149</v>
       </c>
       <c r="C586">
         <f t="shared" si="11"/>
@@ -9425,25 +9421,25 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>95</v>
+        <v>491</v>
       </c>
       <c r="C587">
         <f t="shared" si="11"/>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>466</v>
+        <v>95</v>
       </c>
       <c r="C588">
         <f t="shared" si="11"/>
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>565</v>
+        <v>466</v>
       </c>
       <c r="C589">
         <f t="shared" si="11"/>
@@ -9452,16 +9448,16 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>347</v>
+        <v>565</v>
       </c>
       <c r="C590">
         <f t="shared" si="11"/>
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>533</v>
+        <v>347</v>
       </c>
       <c r="C591">
         <f t="shared" si="11"/>
@@ -9470,7 +9466,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>448</v>
+        <v>533</v>
       </c>
       <c r="C592">
         <f t="shared" si="11"/>
@@ -9479,7 +9475,7 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>105</v>
+        <v>448</v>
       </c>
       <c r="C593">
         <f t="shared" si="11"/>
@@ -9488,16 +9484,16 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>519</v>
+        <v>105</v>
       </c>
       <c r="C594">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>252</v>
+        <v>519</v>
       </c>
       <c r="C595">
         <f t="shared" si="11"/>
@@ -9506,16 +9502,16 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>530</v>
+        <v>252</v>
       </c>
       <c r="C596">
         <f t="shared" si="11"/>
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>444</v>
+        <v>530</v>
       </c>
       <c r="C597">
         <f t="shared" si="11"/>
@@ -9524,10 +9520,7 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>554</v>
-      </c>
-      <c r="B598" t="s">
-        <v>553</v>
+        <v>444</v>
       </c>
       <c r="C598">
         <f t="shared" si="11"/>
@@ -9536,42 +9529,46 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>502</v>
+        <v>554</v>
+      </c>
+      <c r="B599" t="s">
+        <v>553</v>
       </c>
       <c r="C599">
         <f t="shared" si="11"/>
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>356</v>
+        <v>502</v>
       </c>
       <c r="C600">
         <f t="shared" si="11"/>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="C601">
         <f t="shared" si="11"/>
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>248</v>
-      </c>
-      <c r="D602" t="s">
-        <v>588</v>
+        <v>274</v>
+      </c>
+      <c r="C602">
+        <f t="shared" si="11"/>
+        <v>67</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>868</v>
+        <v>248</v>
       </c>
       <c r="D603" t="s">
         <v>588</v>
@@ -9579,23 +9576,23 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D604" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A605" s="6" t="s">
-        <v>870</v>
+      <c r="A605" t="s">
+        <v>869</v>
       </c>
       <c r="D605" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A606" t="s">
-        <v>625</v>
+      <c r="A606" s="6" t="s">
+        <v>870</v>
       </c>
       <c r="D606" t="s">
         <v>588</v>
@@ -9603,7 +9600,7 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>871</v>
+        <v>625</v>
       </c>
       <c r="D607" t="s">
         <v>588</v>
@@ -9611,7 +9608,7 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D608" t="s">
         <v>588</v>
@@ -9619,7 +9616,7 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D609" t="s">
         <v>588</v>
@@ -9627,7 +9624,7 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D610" t="s">
         <v>588</v>
@@ -9635,7 +9632,7 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>629</v>
+        <v>874</v>
       </c>
       <c r="D611" t="s">
         <v>588</v>
@@ -9643,7 +9640,7 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>875</v>
+        <v>629</v>
       </c>
       <c r="D612" t="s">
         <v>588</v>
@@ -9651,7 +9648,7 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D613" t="s">
         <v>588</v>
@@ -9659,7 +9656,7 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D614" t="s">
         <v>588</v>
@@ -9667,7 +9664,7 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>213</v>
+        <v>877</v>
       </c>
       <c r="D615" t="s">
         <v>588</v>
@@ -9675,7 +9672,7 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>878</v>
+        <v>213</v>
       </c>
       <c r="D616" t="s">
         <v>588</v>
@@ -9683,7 +9680,7 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D617" t="s">
         <v>588</v>
@@ -9691,7 +9688,7 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D618" t="s">
         <v>588</v>
@@ -9699,7 +9696,7 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D619" t="s">
         <v>588</v>
@@ -9707,23 +9704,23 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D620" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A621" s="6" t="s">
-        <v>97</v>
+      <c r="A621" t="s">
+        <v>882</v>
       </c>
       <c r="D621" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A622" t="s">
-        <v>883</v>
+      <c r="A622" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="D622" t="s">
         <v>588</v>
@@ -9731,7 +9728,7 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>179</v>
+        <v>883</v>
       </c>
       <c r="D623" t="s">
         <v>588</v>
@@ -9739,7 +9736,7 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>884</v>
+        <v>179</v>
       </c>
       <c r="D624" t="s">
         <v>588</v>
@@ -9747,7 +9744,7 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D625" t="s">
         <v>588</v>
@@ -9755,7 +9752,7 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D626" t="s">
         <v>588</v>
@@ -9763,7 +9760,7 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D627" t="s">
         <v>588</v>
@@ -9771,7 +9768,7 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D628" t="s">
         <v>588</v>
@@ -9779,7 +9776,7 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D629" t="s">
         <v>588</v>
@@ -9787,7 +9784,7 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D630" t="s">
         <v>588</v>
@@ -9795,7 +9792,7 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D631" t="s">
         <v>588</v>
@@ -9803,7 +9800,7 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D632" t="s">
         <v>588</v>
@@ -9811,7 +9808,7 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>624</v>
+        <v>892</v>
       </c>
       <c r="D633" t="s">
         <v>588</v>
@@ -9819,7 +9816,7 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>893</v>
+        <v>624</v>
       </c>
       <c r="D634" t="s">
         <v>588</v>
@@ -9827,23 +9824,23 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D635" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A636" s="6" t="s">
-        <v>120</v>
+      <c r="A636" t="s">
+        <v>894</v>
       </c>
       <c r="D636" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A637" t="s">
-        <v>895</v>
+      <c r="A637" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="D637" t="s">
         <v>588</v>
@@ -9851,7 +9848,7 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D638" t="s">
         <v>588</v>
@@ -9859,7 +9856,7 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>639</v>
+        <v>896</v>
       </c>
       <c r="D639" t="s">
         <v>588</v>
@@ -9867,7 +9864,7 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>897</v>
+        <v>639</v>
       </c>
       <c r="D640" t="s">
         <v>588</v>
@@ -9875,15 +9872,15 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>686</v>
+        <v>897</v>
       </c>
       <c r="D641" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D642" t="s">
         <v>598</v>
@@ -9891,7 +9888,7 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D643" t="s">
         <v>598</v>
@@ -9899,7 +9896,7 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D644" t="s">
         <v>598</v>
@@ -9907,7 +9904,7 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D645" t="s">
         <v>598</v>
@@ -9915,7 +9912,7 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D646" t="s">
         <v>598</v>
@@ -9923,7 +9920,7 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>898</v>
+        <v>691</v>
       </c>
       <c r="D647" t="s">
         <v>598</v>
@@ -9931,7 +9928,7 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>693</v>
+        <v>898</v>
       </c>
       <c r="D648" t="s">
         <v>598</v>
@@ -9939,7 +9936,7 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D649" t="s">
         <v>598</v>
@@ -9947,7 +9944,7 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D650" t="s">
         <v>598</v>
@@ -9955,7 +9952,7 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D651" t="s">
         <v>598</v>
@@ -9963,7 +9960,7 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D652" t="s">
         <v>598</v>
@@ -9971,7 +9968,7 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D653" t="s">
         <v>598</v>
@@ -9979,7 +9976,7 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D654" t="s">
         <v>598</v>
@@ -9987,15 +9984,15 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="D655" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D656" t="s">
         <v>568</v>
@@ -10003,7 +10000,7 @@
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D657" t="s">
         <v>568</v>
@@ -10011,7 +10008,7 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D658" t="s">
         <v>568</v>
@@ -10019,7 +10016,7 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D659" t="s">
         <v>568</v>
@@ -10027,7 +10024,7 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D660" t="s">
         <v>568</v>
@@ -10035,7 +10032,7 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D661" t="s">
         <v>568</v>
@@ -10043,7 +10040,7 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="D662" t="s">
         <v>568</v>
@@ -10051,7 +10048,7 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="D663" t="s">
         <v>568</v>
@@ -10059,7 +10056,7 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D664" t="s">
         <v>568</v>
@@ -10067,7 +10064,7 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>683</v>
+        <v>637</v>
       </c>
       <c r="D665" t="s">
         <v>568</v>
@@ -10075,7 +10072,7 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>628</v>
+        <v>683</v>
       </c>
       <c r="D666" t="s">
         <v>568</v>
@@ -10083,7 +10080,7 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D667" t="s">
         <v>568</v>
@@ -10091,7 +10088,7 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D668" t="s">
         <v>568</v>
@@ -10099,7 +10096,7 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="D669" t="s">
         <v>568</v>
@@ -10107,7 +10104,7 @@
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>684</v>
+        <v>636</v>
       </c>
       <c r="D670" t="s">
         <v>568</v>
@@ -10115,7 +10112,7 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>634</v>
+        <v>684</v>
       </c>
       <c r="D671" t="s">
         <v>568</v>
@@ -10123,7 +10120,7 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D672" t="s">
         <v>568</v>
@@ -10131,7 +10128,7 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="D673" t="s">
         <v>568</v>
@@ -10139,7 +10136,7 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>179</v>
+        <v>631</v>
       </c>
       <c r="D674" t="s">
         <v>568</v>
@@ -10147,7 +10144,7 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>635</v>
+        <v>179</v>
       </c>
       <c r="D675" t="s">
         <v>568</v>
@@ -10155,7 +10152,7 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>192</v>
+        <v>635</v>
       </c>
       <c r="D676" t="s">
         <v>568</v>
@@ -10163,7 +10160,7 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>640</v>
+        <v>192</v>
       </c>
       <c r="D677" t="s">
         <v>568</v>
@@ -10171,7 +10168,7 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="D678" t="s">
         <v>568</v>
@@ -10179,7 +10176,7 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D679" t="s">
         <v>568</v>
@@ -10187,7 +10184,7 @@
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>685</v>
+        <v>642</v>
       </c>
       <c r="D680" t="s">
         <v>568</v>
@@ -10195,7 +10192,7 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>627</v>
+        <v>685</v>
       </c>
       <c r="D681" t="s">
         <v>568</v>
@@ -10203,7 +10200,7 @@
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D682" t="s">
         <v>568</v>
@@ -10211,7 +10208,7 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>120</v>
+        <v>624</v>
       </c>
       <c r="D683" t="s">
         <v>568</v>
@@ -10219,7 +10216,7 @@
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>623</v>
+        <v>120</v>
       </c>
       <c r="D684" t="s">
         <v>568</v>
@@ -10227,7 +10224,7 @@
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="D685" t="s">
         <v>568</v>
@@ -10235,15 +10232,15 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>704</v>
+        <v>639</v>
       </c>
       <c r="D686" t="s">
-        <v>615</v>
+        <v>568</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D687" t="s">
         <v>615</v>
@@ -10251,15 +10248,15 @@
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D688" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A689" s="6" t="s">
-        <v>707</v>
+      <c r="A689" t="s">
+        <v>706</v>
       </c>
       <c r="D689" t="s">
         <v>615</v>
@@ -10267,7 +10264,7 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A690" s="6" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="D690" t="s">
         <v>615</v>
@@ -10275,7 +10272,7 @@
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A691" s="6" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D691" t="s">
         <v>615</v>
@@ -10283,7 +10280,7 @@
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A692" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D692" t="s">
         <v>615</v>
@@ -10291,7 +10288,7 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A693" s="6" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D693" t="s">
         <v>615</v>
@@ -10299,7 +10296,7 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A694" s="6" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="D694" t="s">
         <v>615</v>
@@ -10307,7 +10304,7 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A695" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D695" t="s">
         <v>615</v>
@@ -10315,15 +10312,15 @@
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A696" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D696" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A697" t="s">
-        <v>603</v>
+      <c r="A697" s="6" t="s">
+        <v>713</v>
       </c>
       <c r="D697" t="s">
         <v>615</v>
@@ -10331,16 +10328,15 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>717</v>
-      </c>
-      <c r="C698" s="4"/>
+        <v>603</v>
+      </c>
       <c r="D698" t="s">
-        <v>717</v>
+        <v>615</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C699" s="4"/>
       <c r="D699" t="s">
@@ -10349,7 +10345,7 @@
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C700" s="4"/>
       <c r="D700" t="s">
@@ -10358,49 +10354,49 @@
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>720</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="C701" s="4"/>
       <c r="D701" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D702" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>722</v>
-      </c>
-      <c r="C703" s="4"/>
+        <v>721</v>
+      </c>
       <c r="D703" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>723</v>
-      </c>
+        <v>722</v>
+      </c>
+      <c r="C704" s="4"/>
       <c r="D704" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>724</v>
-      </c>
-      <c r="C705" s="4"/>
+        <v>723</v>
+      </c>
       <c r="D705" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C706" s="4"/>
       <c r="D706" t="s">
@@ -10409,7 +10405,7 @@
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C707" s="4"/>
       <c r="D707" t="s">
@@ -10418,7 +10414,7 @@
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C708" s="4"/>
       <c r="D708" t="s">
@@ -10427,7 +10423,7 @@
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C709" s="4"/>
       <c r="D709" t="s">
@@ -10436,7 +10432,7 @@
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C710" s="4"/>
       <c r="D710" t="s">
@@ -10445,7 +10441,7 @@
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C711" s="4"/>
       <c r="D711" t="s">
@@ -10454,15 +10450,16 @@
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>731</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="C712" s="4"/>
       <c r="D712" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D713" t="s">
         <v>733</v>
@@ -10470,15 +10467,15 @@
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D714" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D715" t="s">
         <v>737</v>
@@ -10486,7 +10483,7 @@
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D716" t="s">
         <v>737</v>
@@ -10494,7 +10491,7 @@
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D717" t="s">
         <v>737</v>
@@ -10502,26 +10499,25 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>738</v>
+        <v>737</v>
+      </c>
+      <c r="D718" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
         <v>739</v>
-      </c>
-    </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A720" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="C720" s="4"/>
-      <c r="D720" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A721" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C721" s="4"/>
       <c r="D721" t="s">
@@ -10530,7 +10526,7 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A722" s="6" t="s">
-        <v>899</v>
+        <v>842</v>
       </c>
       <c r="C722" s="4"/>
       <c r="D722" t="s">
@@ -10539,7 +10535,7 @@
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A723" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C723" s="4"/>
       <c r="D723" t="s">
@@ -10547,643 +10543,652 @@
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A724" t="s">
-        <v>740</v>
+      <c r="A724" s="6" t="s">
+        <v>900</v>
       </c>
       <c r="C724" s="4"/>
+      <c r="D724" t="s">
+        <v>899</v>
+      </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C725" s="4"/>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C726" s="4"/>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>161</v>
+        <v>742</v>
       </c>
       <c r="C727" s="4"/>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>743</v>
+        <v>161</v>
       </c>
       <c r="C728" s="4"/>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>201</v>
+        <v>743</v>
       </c>
       <c r="C729" s="4"/>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>744</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C730" s="4"/>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>830</v>
+        <v>852</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
         <v>867</v>
       </c>
     </row>
@@ -11193,19 +11198,19 @@
       <sortCondition ref="C1:C678"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A602:A640">
+  <conditionalFormatting sqref="A603:A641">
     <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A641:A654">
+  <conditionalFormatting sqref="A642:A655">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A770:A773 D8 D2:D5 D10:D11 A9:A601 A1:A7 A777:A1048576 A686:A766">
+  <conditionalFormatting sqref="A771:A774 D9 D2:D5 D11:D12 A10:A602 A1:A8 A778:A1048576 A687:A767">
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L42:L80">
+  <conditionalFormatting sqref="L43:L81">
     <cfRule type="duplicateValues" dxfId="1" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L82:L95">
+  <conditionalFormatting sqref="L83:L96">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2_Extracting affilitations/2_Fuzzy matching/University list/Unique Universities.xlsx
+++ b/2_Extracting affilitations/2_Fuzzy matching/University list/Unique Universities.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MattJohnson/Desktop/Affiliations/2_Extracting affilitations/2_Fuzzy matching/University list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E605D9-8469-4C4B-AD5F-7328140417B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8C4663-A4DF-A24D-B61D-225F017B1A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="540" windowWidth="33620" windowHeight="18540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="unique original" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="correct" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'unique original'!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="1044">
   <si>
     <t>Affilliation</t>
   </si>
@@ -2758,13 +2759,424 @@
   </si>
   <si>
     <t>Wolfson College, Oxford</t>
+  </si>
+  <si>
+    <t>Bar-Ilan University</t>
+  </si>
+  <si>
+    <t>Bard College</t>
+  </si>
+  <si>
+    <t>Brookings Institution</t>
+  </si>
+  <si>
+    <t>Carnegie-Mellon University</t>
+  </si>
+  <si>
+    <t>Central Bank Of Iran</t>
+  </si>
+  <si>
+    <t>Chase Manhattan Bank</t>
+  </si>
+  <si>
+    <t>City College</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank Of Cleveland</t>
+  </si>
+  <si>
+    <t>Hebrew University Of Jerusalem</t>
+  </si>
+  <si>
+    <t>London School Of Economics &amp; Political Sciences</t>
+  </si>
+  <si>
+    <t>New York Citt-Rand Institute</t>
+  </si>
+  <si>
+    <t>Suny System</t>
+  </si>
+  <si>
+    <t>Trachtenberg School Of Public Policy</t>
+  </si>
+  <si>
+    <t>UCSB</t>
+  </si>
+  <si>
+    <t>University Of Basel</t>
+  </si>
+  <si>
+    <t>Laval University</t>
+  </si>
+  <si>
+    <t>University Of Cambridge</t>
+  </si>
+  <si>
+    <t>University Of Illinois Chicago</t>
+  </si>
+  <si>
+    <t>University of Illinois Urbana-Champaign</t>
+  </si>
+  <si>
+    <t>University Of North Carolina System</t>
+  </si>
+  <si>
+    <t>University Of North Carolina At Charlotte</t>
+  </si>
+  <si>
+    <t>University Of Texas System</t>
+  </si>
+  <si>
+    <t>Washington University In St Louis</t>
+  </si>
+  <si>
+    <t>Griffith University</t>
+  </si>
+  <si>
+    <t>University Of Groningen</t>
+  </si>
+  <si>
+    <t>Indian Statistical Institute</t>
+  </si>
+  <si>
+    <t>Institute for Fiscal Studies</t>
+  </si>
+  <si>
+    <t>Tel Aviv University</t>
+  </si>
+  <si>
+    <t>Salomon Brothers Asia Limited</t>
+  </si>
+  <si>
+    <t>Sogang University</t>
+  </si>
+  <si>
+    <t>Universidad Del Pais Vasco</t>
+  </si>
+  <si>
+    <t>Universidad Torcuato Di Tella</t>
+  </si>
+  <si>
+    <t>Università Di Bologna</t>
+  </si>
+  <si>
+    <t>Università Di Firenze</t>
+  </si>
+  <si>
+    <t>Università Di Trento</t>
+  </si>
+  <si>
+    <t>Università Di Venezia</t>
+  </si>
+  <si>
+    <t>Universitat Pompeu Fabra</t>
+  </si>
+  <si>
+    <t>University Of Aberdeen</t>
+  </si>
+  <si>
+    <t>University Of Auckland</t>
+  </si>
+  <si>
+    <t>University Of Exeter</t>
+  </si>
+  <si>
+    <t>University Of Georgia</t>
+  </si>
+  <si>
+    <t>University Of Hannover</t>
+  </si>
+  <si>
+    <t>University Of Heidelberg</t>
+  </si>
+  <si>
+    <t>University Of Leiden</t>
+  </si>
+  <si>
+    <t>University Of Limburg</t>
+  </si>
+  <si>
+    <t>University Of Maryland System</t>
+  </si>
+  <si>
+    <t>University Of Modena</t>
+  </si>
+  <si>
+    <t>Newcastle University</t>
+  </si>
+  <si>
+    <t>University Of St Andrews</t>
+  </si>
+  <si>
+    <t>University Of Toulouse</t>
+  </si>
+  <si>
+    <t>University Of Victoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of Florence </t>
+  </si>
+  <si>
+    <t>Sophia University</t>
+  </si>
+  <si>
+    <t>University Of Bamberg</t>
+  </si>
+  <si>
+    <t>California State University At Long Beach</t>
+  </si>
+  <si>
+    <t>California State University At Northridge</t>
+  </si>
+  <si>
+    <t>California State University At Fullerton</t>
+  </si>
+  <si>
+    <t>University Of Innsbruck</t>
+  </si>
+  <si>
+    <t>Free University Amsterdam</t>
+  </si>
+  <si>
+    <t>University Of Illinois System</t>
+  </si>
+  <si>
+    <t>University Of California System</t>
+  </si>
+  <si>
+    <t>Bogazici University</t>
+  </si>
+  <si>
+    <t>Athens University Of Economics And Business</t>
+  </si>
+  <si>
+    <t>Australian National University</t>
+  </si>
+  <si>
+    <t>Babson Institute</t>
+  </si>
+  <si>
+    <t>Banco De México</t>
+  </si>
+  <si>
+    <t>Bank For International Settlements</t>
+  </si>
+  <si>
+    <t>Bank Of America</t>
+  </si>
+  <si>
+    <t>Bank Of Canada</t>
+  </si>
+  <si>
+    <t>Bates College</t>
+  </si>
+  <si>
+    <t>Bentley University</t>
+  </si>
+  <si>
+    <t>Deutsche Bundesbank</t>
+  </si>
+  <si>
+    <t>Dong-A University</t>
+  </si>
+  <si>
+    <t>Dube University</t>
+  </si>
+  <si>
+    <t>Eastern Michigan University</t>
+  </si>
+  <si>
+    <t>Flinders University Of South Australia</t>
+  </si>
+  <si>
+    <t>General Motors Corporation</t>
+  </si>
+  <si>
+    <t>Georgia State University</t>
+  </si>
+  <si>
+    <t>Delhi School Of Economics</t>
+  </si>
+  <si>
+    <t>Arthur Andersen Economic Consulting</t>
+  </si>
+  <si>
+    <t>Chinese University Of Hong Kong</t>
+  </si>
+  <si>
+    <t>China Europe International Business School</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank Of St Louis</t>
+  </si>
+  <si>
+    <t>Federal Reserve System</t>
+  </si>
+  <si>
+    <t>Federal Trade Commission</t>
+  </si>
+  <si>
+    <t>Federal University Of Ceará</t>
+  </si>
+  <si>
+    <t>Indiana University System</t>
+  </si>
+  <si>
+    <t>Indiana University Bloomington</t>
+  </si>
+  <si>
+    <t>Indiana University Of Pennsylvania</t>
+  </si>
+  <si>
+    <t>University Of Gothenburg</t>
+  </si>
+  <si>
+    <t>US Department Of Agriculture</t>
+  </si>
+  <si>
+    <t>US Department Of Commerce</t>
+  </si>
+  <si>
+    <t>US Department Of Justice</t>
+  </si>
+  <si>
+    <t>US Naval Academy</t>
+  </si>
+  <si>
+    <t>US Bureau Of Labor Statistics</t>
+  </si>
+  <si>
+    <t>US Bureau Of The Census</t>
+  </si>
+  <si>
+    <t>US Air Force Academy</t>
+  </si>
+  <si>
+    <t>Vassar College</t>
+  </si>
+  <si>
+    <t>University Of West Georgia</t>
+  </si>
+  <si>
+    <t>University Of St Andreus</t>
+  </si>
+  <si>
+    <t>University Of Tasmania</t>
+  </si>
+  <si>
+    <t>University Of Tennessee At Knoxville</t>
+  </si>
+  <si>
+    <t>University Of Torino</t>
+  </si>
+  <si>
+    <t>University Of Tübingen</t>
+  </si>
+  <si>
+    <t>University Of Puerto Rico</t>
+  </si>
+  <si>
+    <t>University Of Salerno</t>
+  </si>
+  <si>
+    <t>University Of South Alabama</t>
+  </si>
+  <si>
+    <t>University Of Padova</t>
+  </si>
+  <si>
+    <t>Seattle University</t>
+  </si>
+  <si>
+    <t>Singapore Management University</t>
+  </si>
+  <si>
+    <t>Rice Institute</t>
+  </si>
+  <si>
+    <t>Congressional Research Service</t>
+  </si>
+  <si>
+    <t>Credit Suisse First Boston</t>
+  </si>
+  <si>
+    <t>Mississippi State University</t>
+  </si>
+  <si>
+    <t>Ohio University</t>
+  </si>
+  <si>
+    <t>Heriot-Watt University</t>
+  </si>
+  <si>
+    <t>Hong Kong University Of Science And Technology</t>
+  </si>
+  <si>
+    <t>IBM Corporation</t>
+  </si>
+  <si>
+    <t>Montana State University</t>
+  </si>
+  <si>
+    <t>University Of Glasgow</t>
+  </si>
+  <si>
+    <t>University Of Hawai</t>
+  </si>
+  <si>
+    <t>University Of Cincinnati</t>
+  </si>
+  <si>
+    <t>University Of Kent</t>
+  </si>
+  <si>
+    <t>University Of Leuven</t>
+  </si>
+  <si>
+    <t>University Of Manitoba</t>
+  </si>
+  <si>
+    <t>St Olaf College</t>
+  </si>
+  <si>
+    <t>Lawrence College</t>
+  </si>
+  <si>
+    <t>Keele University</t>
+  </si>
+  <si>
+    <t>Morgan Stanley &amp; Co</t>
+  </si>
+  <si>
+    <t>Royal Economic Society</t>
+  </si>
+  <si>
+    <t>Kansas State University</t>
+  </si>
+  <si>
+    <t>Claremont McKenna College</t>
+  </si>
+  <si>
+    <t>Getulio Vargas Foundation</t>
+  </si>
+  <si>
+    <t>First National City Bank</t>
+  </si>
+  <si>
+    <t>University College Of West Indies</t>
+  </si>
+  <si>
+    <t>United States Treasury Department</t>
+  </si>
+  <si>
+    <t>University Of North Carolina At Chapel Hill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2782,6 +3194,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2834,7 +3261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2844,11 +3271,33 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3249,8 +3698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N843"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11144,6 +11593,18 @@
       <sortCondition ref="C1:C678"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="10" priority="7" rank="10"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A596:A634">
     <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
@@ -11153,29 +11614,8 @@
   <conditionalFormatting sqref="A770:A1048576 A764:A767 D9 D2:D5 D11:D12 A10:A595 A1:A8 A680:A760">
     <cfRule type="duplicateValues" dxfId="7" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L77:L90">
-    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="4" priority="7" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L40:L75">
-    <cfRule type="duplicateValues" dxfId="3" priority="65"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B764">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B764">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -11184,7 +11624,14 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="0" priority="3" rank="10"/>
+    <cfRule type="top10" dxfId="5" priority="3" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40:L75">
+    <cfRule type="duplicateValues" dxfId="3" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L77:L90">
+    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11889,4 +12336,3657 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD93ECA1-5B74-0644-B636-3F9C89FF5398}">
+  <dimension ref="A1:A727"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="8" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A606" s="8" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A721" s="8" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>